--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_21_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>640562.3009615234</v>
+        <v>639861.1226018531</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2715164.62224856</v>
+        <v>2715164.622248559</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="E11" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>143.5763141419071</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.661544532402425</v>
+        <v>6.661544532402473</v>
       </c>
       <c r="T11" t="n">
-        <v>30.21659382522189</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>60.67917065512619</v>
+        <v>60.67917065512623</v>
       </c>
       <c r="V11" t="n">
-        <v>45.6270491209755</v>
+        <v>66.95256434265934</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.05300062542673</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="T12" t="n">
-        <v>70.25758205972107</v>
+        <v>43.01848666396751</v>
       </c>
       <c r="U12" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="V12" t="n">
-        <v>42.17529672426491</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="W12" t="n">
-        <v>61.06969273575925</v>
+        <v>61.0696927357593</v>
       </c>
       <c r="X12" t="n">
-        <v>15.14769477831712</v>
+        <v>15.14769477831717</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.057405352144</v>
+        <v>15.05740535214406</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>29.3662097764534</v>
+        <v>29.36620977645346</v>
       </c>
       <c r="T13" t="n">
-        <v>36.33344663868791</v>
+        <v>36.33344663868797</v>
       </c>
       <c r="U13" t="n">
-        <v>95.68114081603989</v>
+        <v>95.68114081603994</v>
       </c>
       <c r="V13" t="n">
-        <v>61.51235289866764</v>
+        <v>61.5123528986677</v>
       </c>
       <c r="W13" t="n">
-        <v>95.89770791143064</v>
+        <v>95.8977079114307</v>
       </c>
       <c r="X13" t="n">
-        <v>35.08436496387679</v>
+        <v>35.08436496387685</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.95936292693443</v>
+        <v>27.95936292693449</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>67.62901835384827</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>143.5763141419071</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.661544532402473</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>30.21659382522193</v>
+        <v>30.21659382522194</v>
       </c>
       <c r="U14" t="n">
         <v>60.67917065512623</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>137.1269680449746</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>45.62704912097527</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>79.91140092229324</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.05300062542673</v>
+        <v>34.58948510040341</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="T15" t="n">
         <v>8.42900156356411</v>
       </c>
       <c r="U15" t="n">
-        <v>39.14988165027239</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="V15" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="W15" t="n">
         <v>61.0696927357593</v>
@@ -1752,7 +1752,7 @@
         <v>15.14769477831717</v>
       </c>
       <c r="Y15" t="n">
-        <v>152.467392745445</v>
+        <v>15.05740535214406</v>
       </c>
     </row>
     <row r="16">
@@ -1853,7 +1853,7 @@
         <v>65.40742063021457</v>
       </c>
       <c r="F17" t="n">
-        <v>90.35309629966423</v>
+        <v>90.3530962996643</v>
       </c>
       <c r="G17" t="n">
         <v>98.2648902287134</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>134.2932795301881</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.05300062542673</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="V18" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="W18" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>51.24027890476126</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>145.6805479798759</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.82183659468495</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>78.85871138519106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>66.21089222143337</v>
       </c>
       <c r="C20" t="n">
-        <v>48.74994232895922</v>
+        <v>48.74994232896034</v>
       </c>
       <c r="D20" t="n">
         <v>38.16009217863575</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0680225288361</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.05300062542673</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>4.623437353413256</v>
       </c>
       <c r="U21" t="n">
-        <v>51.24027890476126</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="X21" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>66.82183659468495</v>
       </c>
       <c r="R22" t="n">
-        <v>145.680547979876</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>78.85871138519092</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.21089222143337</v>
+        <v>66.21089222143343</v>
       </c>
       <c r="C23" t="n">
-        <v>48.74994232896034</v>
+        <v>48.7499423289604</v>
       </c>
       <c r="D23" t="n">
-        <v>38.16009217863575</v>
+        <v>38.16009217863581</v>
       </c>
       <c r="E23" t="n">
-        <v>65.40742063021457</v>
+        <v>65.40742063021463</v>
       </c>
       <c r="F23" t="n">
-        <v>90.35309629966423</v>
+        <v>90.35309629966429</v>
       </c>
       <c r="G23" t="n">
-        <v>98.2648902287134</v>
+        <v>98.26489022871345</v>
       </c>
       <c r="H23" t="n">
-        <v>17.67865512502021</v>
+        <v>17.67865512502027</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>11.2293090280877</v>
+        <v>11.22930902808775</v>
       </c>
       <c r="W23" t="n">
-        <v>32.7180192753658</v>
+        <v>32.71801927536586</v>
       </c>
       <c r="X23" t="n">
-        <v>53.20815123642183</v>
+        <v>53.20815123642188</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.71498921400638</v>
+        <v>69.71498921400644</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>79.91140092229324</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>83.05300062542673</v>
       </c>
       <c r="S24" t="n">
-        <v>152.467392745445</v>
+        <v>51.24027890476138</v>
       </c>
       <c r="T24" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>123.7962707279131</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
     </row>
     <row r="25">
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5324677071087</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>66.82183659468495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>78.85871138519092</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>225.3374735258461</v>
+        <v>225.3374735258463</v>
       </c>
       <c r="C26" t="n">
-        <v>207.876523633373</v>
+        <v>207.8765236333732</v>
       </c>
       <c r="D26" t="n">
-        <v>197.2866734830484</v>
+        <v>197.2866734830486</v>
       </c>
       <c r="E26" t="n">
-        <v>224.5340019346273</v>
+        <v>224.5340019346275</v>
       </c>
       <c r="F26" t="n">
-        <v>249.4796776040769</v>
+        <v>249.4796776040771</v>
       </c>
       <c r="G26" t="n">
-        <v>257.3914715331261</v>
+        <v>257.3914715331263</v>
       </c>
       <c r="H26" t="n">
-        <v>176.8052364294329</v>
+        <v>176.8052364294331</v>
       </c>
       <c r="I26" t="n">
-        <v>33.22892228752579</v>
+        <v>33.22892228752599</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.89046681992827</v>
+        <v>39.89046681992846</v>
       </c>
       <c r="T26" t="n">
-        <v>63.44551611274773</v>
+        <v>63.44551611274792</v>
       </c>
       <c r="U26" t="n">
-        <v>93.90809294265202</v>
+        <v>93.90809294265222</v>
       </c>
       <c r="V26" t="n">
-        <v>170.3558903325004</v>
+        <v>170.3558903325006</v>
       </c>
       <c r="W26" t="n">
-        <v>191.8446005797785</v>
+        <v>191.8446005797787</v>
       </c>
       <c r="X26" t="n">
-        <v>212.3347325408345</v>
+        <v>212.3347325408347</v>
       </c>
       <c r="Y26" t="n">
-        <v>228.8415705184191</v>
+        <v>228.8415705184193</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>9.136815512233028</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>15.31213085068143</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0.248712317766433</v>
+        <v>0.2487123177666319</v>
       </c>
       <c r="F27" t="n">
-        <v>94.69059920167759</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0680225288361</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.05300062542673</v>
       </c>
       <c r="S27" t="n">
         <v>166.5659791013116</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0542919887244</v>
+        <v>95.90232635338492</v>
       </c>
       <c r="U27" t="n">
         <v>225.9232574339765</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.43561204430279</v>
+        <v>22.43561204430299</v>
       </c>
       <c r="C28" t="n">
-        <v>9.850452960993323</v>
+        <v>9.850452960993522</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10.36364577382924</v>
+        <v>10.36364577382944</v>
       </c>
       <c r="H28" t="n">
-        <v>2.777311577431246</v>
+        <v>2.777311577431445</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.511976868286613</v>
+        <v>9.511976868286812</v>
       </c>
       <c r="S28" t="n">
-        <v>62.59513206397925</v>
+        <v>62.59513206397945</v>
       </c>
       <c r="T28" t="n">
-        <v>69.56236892621376</v>
+        <v>69.56236892621396</v>
       </c>
       <c r="U28" t="n">
-        <v>128.9100631035657</v>
+        <v>128.9100631035659</v>
       </c>
       <c r="V28" t="n">
-        <v>94.74127518619349</v>
+        <v>94.74127518619369</v>
       </c>
       <c r="W28" t="n">
-        <v>129.1266301989565</v>
+        <v>129.1266301989567</v>
       </c>
       <c r="X28" t="n">
-        <v>68.31328725140264</v>
+        <v>68.31328725140284</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.18828521446028</v>
+        <v>61.18828521446048</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>225.337473525846</v>
+        <v>225.3374735258463</v>
       </c>
       <c r="C29" t="n">
-        <v>207.876523633373</v>
+        <v>207.8765236333732</v>
       </c>
       <c r="D29" t="n">
-        <v>197.2866734830484</v>
+        <v>197.2866734830486</v>
       </c>
       <c r="E29" t="n">
-        <v>224.5340019346272</v>
+        <v>224.5340019346275</v>
       </c>
       <c r="F29" t="n">
-        <v>249.4796776040769</v>
+        <v>249.4796776040771</v>
       </c>
       <c r="G29" t="n">
-        <v>257.391471533126</v>
+        <v>257.3914715331263</v>
       </c>
       <c r="H29" t="n">
-        <v>176.8052364294329</v>
+        <v>176.8052364294331</v>
       </c>
       <c r="I29" t="n">
-        <v>33.22892228752573</v>
+        <v>33.22892228752599</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.89046681992821</v>
+        <v>39.89046681992846</v>
       </c>
       <c r="T29" t="n">
-        <v>63.44551611274768</v>
+        <v>63.44551611274792</v>
       </c>
       <c r="U29" t="n">
-        <v>93.90809294265196</v>
+        <v>93.90809294265222</v>
       </c>
       <c r="V29" t="n">
-        <v>170.3558903325003</v>
+        <v>170.3558903325006</v>
       </c>
       <c r="W29" t="n">
-        <v>191.8446005797784</v>
+        <v>191.8446005797787</v>
       </c>
       <c r="X29" t="n">
-        <v>212.3347325408345</v>
+        <v>212.3347325408347</v>
       </c>
       <c r="Y29" t="n">
-        <v>228.841570518419</v>
+        <v>228.8415705184193</v>
       </c>
     </row>
     <row r="30">
@@ -2874,22 +2874,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0.2487123177666319</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>89.12256579159178</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>79.91140092229324</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.05300062542673</v>
       </c>
       <c r="S30" t="n">
-        <v>9.16961096367702</v>
+        <v>166.5659791013116</v>
       </c>
       <c r="T30" t="n">
-        <v>41.65792385108985</v>
+        <v>199.0542919887244</v>
       </c>
       <c r="U30" t="n">
-        <v>185.4959468152662</v>
+        <v>225.9232574339765</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>48.28632763967005</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.43561204430273</v>
+        <v>22.43561204430299</v>
       </c>
       <c r="C31" t="n">
-        <v>9.850452960993266</v>
+        <v>9.850452960993522</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.36364577382918</v>
+        <v>10.36364577382944</v>
       </c>
       <c r="H31" t="n">
-        <v>2.77731157743119</v>
+        <v>2.777311577431445</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.511976868286556</v>
+        <v>9.511976868286812</v>
       </c>
       <c r="S31" t="n">
-        <v>62.59513206397919</v>
+        <v>62.59513206397945</v>
       </c>
       <c r="T31" t="n">
-        <v>69.56236892621371</v>
+        <v>69.56236892621396</v>
       </c>
       <c r="U31" t="n">
-        <v>128.9100631035657</v>
+        <v>128.9100631035659</v>
       </c>
       <c r="V31" t="n">
-        <v>94.74127518619343</v>
+        <v>94.74127518619369</v>
       </c>
       <c r="W31" t="n">
-        <v>129.1266301989564</v>
+        <v>129.1266301989567</v>
       </c>
       <c r="X31" t="n">
-        <v>68.31328725140258</v>
+        <v>68.31328725140284</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.18828521446022</v>
+        <v>61.18828521446048</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225.337473525846</v>
+        <v>225.3374735258462</v>
       </c>
       <c r="C32" t="n">
-        <v>207.876523633373</v>
+        <v>207.8765236333732</v>
       </c>
       <c r="D32" t="n">
-        <v>197.2866734830484</v>
+        <v>197.2866734830486</v>
       </c>
       <c r="E32" t="n">
-        <v>224.5340019346272</v>
+        <v>224.5340019346274</v>
       </c>
       <c r="F32" t="n">
-        <v>249.4796776040769</v>
+        <v>249.4796776040771</v>
       </c>
       <c r="G32" t="n">
-        <v>257.391471533126</v>
+        <v>257.3914715331263</v>
       </c>
       <c r="H32" t="n">
-        <v>176.8052364294329</v>
+        <v>176.8052364294331</v>
       </c>
       <c r="I32" t="n">
-        <v>33.22892228752576</v>
+        <v>33.22892228752593</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.89046681992824</v>
+        <v>39.89046681992841</v>
       </c>
       <c r="T32" t="n">
-        <v>63.4455161127477</v>
+        <v>63.44551611274787</v>
       </c>
       <c r="U32" t="n">
-        <v>93.90809294265199</v>
+        <v>93.90809294265216</v>
       </c>
       <c r="V32" t="n">
-        <v>170.3558903325004</v>
+        <v>170.3558903325005</v>
       </c>
       <c r="W32" t="n">
-        <v>191.8446005797785</v>
+        <v>191.8446005797786</v>
       </c>
       <c r="X32" t="n">
-        <v>212.3347325408345</v>
+        <v>212.3347325408347</v>
       </c>
       <c r="Y32" t="n">
-        <v>228.841570518419</v>
+        <v>228.8415705184192</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>15.3121308506812</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0.2487123177665751</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0680225288361</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.05300062542673</v>
       </c>
       <c r="S33" t="n">
-        <v>9.169610963677048</v>
+        <v>166.5659791013116</v>
       </c>
       <c r="T33" t="n">
-        <v>41.65792385108988</v>
+        <v>199.0542919887244</v>
       </c>
       <c r="U33" t="n">
-        <v>205.8242924240647</v>
+        <v>225.9232574339765</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>136.2158617813299</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>48.37661706584311</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.43561204430276</v>
+        <v>22.43561204430293</v>
       </c>
       <c r="C34" t="n">
-        <v>9.850452960993294</v>
+        <v>9.850452960993465</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.36364577382921</v>
+        <v>10.36364577382938</v>
       </c>
       <c r="H34" t="n">
-        <v>2.777311577431218</v>
+        <v>2.777311577431389</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.511976868286585</v>
+        <v>9.511976868286755</v>
       </c>
       <c r="S34" t="n">
-        <v>62.59513206397922</v>
+        <v>62.59513206397939</v>
       </c>
       <c r="T34" t="n">
-        <v>69.56236892621374</v>
+        <v>69.56236892621391</v>
       </c>
       <c r="U34" t="n">
-        <v>128.9100631035657</v>
+        <v>128.9100631035659</v>
       </c>
       <c r="V34" t="n">
-        <v>94.74127518619346</v>
+        <v>94.74127518619363</v>
       </c>
       <c r="W34" t="n">
-        <v>129.1266301989565</v>
+        <v>129.1266301989566</v>
       </c>
       <c r="X34" t="n">
-        <v>68.31328725140261</v>
+        <v>68.31328725140278</v>
       </c>
       <c r="Y34" t="n">
-        <v>61.18828521446025</v>
+        <v>61.18828521446042</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>185.4470067059178</v>
+        <v>185.4470067059179</v>
       </c>
       <c r="C35" t="n">
-        <v>167.9860568134447</v>
+        <v>167.9860568134449</v>
       </c>
       <c r="D35" t="n">
-        <v>157.3962066631202</v>
+        <v>157.3962066631203</v>
       </c>
       <c r="E35" t="n">
-        <v>184.643535114699</v>
+        <v>184.6435351146991</v>
       </c>
       <c r="F35" t="n">
-        <v>209.5892107841486</v>
+        <v>209.5892107841488</v>
       </c>
       <c r="G35" t="n">
-        <v>217.5010047131978</v>
+        <v>217.501004713198</v>
       </c>
       <c r="H35" t="n">
-        <v>136.9147696095046</v>
+        <v>136.9147696095048</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>23.55504929281944</v>
+        <v>23.5550492928196</v>
       </c>
       <c r="U35" t="n">
-        <v>54.01762612272374</v>
+        <v>54.0176261227239</v>
       </c>
       <c r="V35" t="n">
-        <v>130.4654235125721</v>
+        <v>130.4654235125723</v>
       </c>
       <c r="W35" t="n">
-        <v>151.9541337598502</v>
+        <v>151.9541337598504</v>
       </c>
       <c r="X35" t="n">
-        <v>172.4442657209062</v>
+        <v>172.4442657209064</v>
       </c>
       <c r="Y35" t="n">
-        <v>188.9511036984908</v>
+        <v>188.951103698491</v>
       </c>
     </row>
     <row r="36">
@@ -3345,10 +3345,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0680225288361</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5747460571428</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>79.91140092229324</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.05300062542673</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>82.59297711339553</v>
+        <v>199.0542919887244</v>
       </c>
       <c r="U36" t="n">
-        <v>28.63642247641369</v>
+        <v>225.9232574339765</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>52.75939387028919</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.70466524405096</v>
+        <v>22.70466524405113</v>
       </c>
       <c r="T37" t="n">
-        <v>29.67190210628547</v>
+        <v>29.67190210628564</v>
       </c>
       <c r="U37" t="n">
-        <v>89.01959628363744</v>
+        <v>89.01959628363761</v>
       </c>
       <c r="V37" t="n">
-        <v>54.8508083662652</v>
+        <v>54.85080836626537</v>
       </c>
       <c r="W37" t="n">
-        <v>89.2361633790282</v>
+        <v>89.23616337902837</v>
       </c>
       <c r="X37" t="n">
-        <v>28.42282043147435</v>
+        <v>28.42282043147452</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.29781839453199</v>
+        <v>21.29781839453216</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.4470067059177</v>
+        <v>185.4470067059179</v>
       </c>
       <c r="C38" t="n">
-        <v>167.9860568134447</v>
+        <v>167.9860568134449</v>
       </c>
       <c r="D38" t="n">
-        <v>157.3962066631201</v>
+        <v>157.3962066631203</v>
       </c>
       <c r="E38" t="n">
-        <v>184.6435351146989</v>
+        <v>184.6435351146991</v>
       </c>
       <c r="F38" t="n">
-        <v>209.5892107841486</v>
+        <v>209.5892107841487</v>
       </c>
       <c r="G38" t="n">
-        <v>217.5010047131978</v>
+        <v>217.5010047131979</v>
       </c>
       <c r="H38" t="n">
-        <v>136.9147696095046</v>
+        <v>136.9147696095047</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>23.55504929281941</v>
+        <v>23.55504929281955</v>
       </c>
       <c r="U38" t="n">
-        <v>54.01762612272371</v>
+        <v>54.01762612272385</v>
       </c>
       <c r="V38" t="n">
-        <v>130.4654235125721</v>
+        <v>130.4654235125722</v>
       </c>
       <c r="W38" t="n">
-        <v>151.9541337598502</v>
+        <v>151.9541337598503</v>
       </c>
       <c r="X38" t="n">
-        <v>172.4442657209062</v>
+        <v>172.4442657209063</v>
       </c>
       <c r="Y38" t="n">
-        <v>188.9511036984908</v>
+        <v>188.9511036984909</v>
       </c>
     </row>
     <row r="39">
@@ -3585,16 +3585,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>116.4360782273718</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>8.632767164894819</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.76745703116158</v>
+        <v>199.0542919887244</v>
       </c>
       <c r="U39" t="n">
         <v>225.9232574339765</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.70466524405093</v>
+        <v>22.70466524405107</v>
       </c>
       <c r="T40" t="n">
-        <v>29.67190210628544</v>
+        <v>29.67190210628558</v>
       </c>
       <c r="U40" t="n">
-        <v>89.01959628363741</v>
+        <v>89.01959628363755</v>
       </c>
       <c r="V40" t="n">
-        <v>54.85080836626517</v>
+        <v>54.85080836626531</v>
       </c>
       <c r="W40" t="n">
-        <v>89.23616337902817</v>
+        <v>89.23616337902831</v>
       </c>
       <c r="X40" t="n">
-        <v>28.42282043147432</v>
+        <v>28.42282043147446</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.29781839453196</v>
+        <v>21.2978183945321</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.4470067059177</v>
+        <v>185.4470067059178</v>
       </c>
       <c r="C41" t="n">
         <v>167.9860568134447</v>
       </c>
       <c r="D41" t="n">
-        <v>157.3962066631201</v>
+        <v>157.3962066631202</v>
       </c>
       <c r="E41" t="n">
-        <v>184.6435351146989</v>
+        <v>184.643535114699</v>
       </c>
       <c r="F41" t="n">
         <v>209.5892107841486</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>23.55504929281941</v>
+        <v>23.55504929281943</v>
       </c>
       <c r="U41" t="n">
-        <v>54.01762612272371</v>
+        <v>54.01762612272373</v>
       </c>
       <c r="V41" t="n">
         <v>130.4654235125721</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>70.61618348140776</v>
       </c>
       <c r="H42" t="n">
-        <v>42.9552005747377</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>79.91140092229324</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>83.05300062542673</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.5659791013116</v>
       </c>
       <c r="T42" t="n">
-        <v>1.76745703116158</v>
+        <v>199.0542919887244</v>
       </c>
       <c r="U42" t="n">
-        <v>28.63642247641366</v>
+        <v>225.9232574339765</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>35.51375219186247</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.70466524405093</v>
+        <v>22.70466524405096</v>
       </c>
       <c r="T43" t="n">
-        <v>29.67190210628544</v>
+        <v>29.67190210628547</v>
       </c>
       <c r="U43" t="n">
-        <v>89.01959628363741</v>
+        <v>89.01959628363744</v>
       </c>
       <c r="V43" t="n">
-        <v>54.85080836626517</v>
+        <v>54.8508083662652</v>
       </c>
       <c r="W43" t="n">
-        <v>89.23616337902817</v>
+        <v>89.2361633790282</v>
       </c>
       <c r="X43" t="n">
-        <v>28.42282043147432</v>
+        <v>28.42282043147435</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.29781839453196</v>
+        <v>21.29781839453199</v>
       </c>
     </row>
     <row r="44">
@@ -4056,19 +4056,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0680225288361</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>83.05300062542673</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.5659791013116</v>
       </c>
       <c r="T45" t="n">
-        <v>124.6340585281927</v>
+        <v>1.767457031161609</v>
       </c>
       <c r="U45" t="n">
-        <v>28.63642247641369</v>
+        <v>225.9232574339765</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>185.0999315024623</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>465.2389062002388</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="C11" t="n">
-        <v>465.2389062002388</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="D11" t="n">
-        <v>465.2389062002388</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="E11" t="n">
-        <v>311.2314387805974</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="F11" t="n">
-        <v>311.2314387805974</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="G11" t="n">
-        <v>157.2239713609559</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H11" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I11" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J11" t="n">
-        <v>43.6318927683546</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="K11" t="n">
-        <v>194.5746115863452</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="L11" t="n">
-        <v>345.5173304043358</v>
+        <v>163.1401102376263</v>
       </c>
       <c r="M11" t="n">
-        <v>345.5173304043358</v>
+        <v>262.8277827224252</v>
       </c>
       <c r="N11" t="n">
-        <v>345.5173304043358</v>
+        <v>262.8277827224252</v>
       </c>
       <c r="O11" t="n">
-        <v>413.7705015404156</v>
+        <v>413.770501540416</v>
       </c>
       <c r="P11" t="n">
-        <v>564.7132203584061</v>
+        <v>564.7132203584067</v>
       </c>
       <c r="Q11" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R11" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="S11" t="n">
-        <v>603.1407381207677</v>
+        <v>603.1407381207681</v>
       </c>
       <c r="T11" t="n">
-        <v>572.6189261760991</v>
+        <v>603.1407381207681</v>
       </c>
       <c r="U11" t="n">
-        <v>511.3268346052645</v>
+        <v>541.8486465499336</v>
       </c>
       <c r="V11" t="n">
-        <v>465.2389062002388</v>
+        <v>474.2197936785606</v>
       </c>
       <c r="W11" t="n">
-        <v>465.2389062002388</v>
+        <v>320.2123262589188</v>
       </c>
       <c r="X11" t="n">
-        <v>465.2389062002388</v>
+        <v>320.2123262589188</v>
       </c>
       <c r="Y11" t="n">
-        <v>465.2389062002388</v>
+        <v>320.2123262589188</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="C12" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="D12" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="E12" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="F12" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="G12" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H12" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I12" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J12" t="n">
-        <v>37.22618539203668</v>
+        <v>37.22618539203669</v>
       </c>
       <c r="K12" t="n">
-        <v>188.1689042100273</v>
+        <v>52.83187408269447</v>
       </c>
       <c r="L12" t="n">
-        <v>339.1116230280179</v>
+        <v>203.7745929006852</v>
       </c>
       <c r="M12" t="n">
-        <v>354.7173117186755</v>
+        <v>354.7173117186759</v>
       </c>
       <c r="N12" t="n">
-        <v>354.7173117186755</v>
+        <v>354.7173117186759</v>
       </c>
       <c r="O12" t="n">
-        <v>354.7173117186755</v>
+        <v>354.7173117186759</v>
       </c>
       <c r="P12" t="n">
-        <v>505.6600305366661</v>
+        <v>505.6600305366667</v>
       </c>
       <c r="Q12" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R12" t="n">
-        <v>525.9776511581168</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="S12" t="n">
-        <v>371.9701837384754</v>
+        <v>455.8621035621391</v>
       </c>
       <c r="T12" t="n">
-        <v>301.0029291326965</v>
+        <v>412.4090867298487</v>
       </c>
       <c r="U12" t="n">
-        <v>146.9954617130551</v>
+        <v>258.4016193102071</v>
       </c>
       <c r="V12" t="n">
-        <v>104.3941518905653</v>
+        <v>104.3941518905655</v>
       </c>
       <c r="W12" t="n">
-        <v>42.70759357161653</v>
+        <v>42.70759357161666</v>
       </c>
       <c r="X12" t="n">
-        <v>27.40689177533662</v>
+        <v>27.40689177533669</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="C13" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="D13" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="E13" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="F13" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="G13" t="n">
-        <v>34.83401516819525</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H13" t="n">
-        <v>34.83401516819525</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I13" t="n">
-        <v>76.53338579905375</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J13" t="n">
-        <v>76.53338579905375</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="K13" t="n">
-        <v>81.05223460479579</v>
+        <v>16.71624022537765</v>
       </c>
       <c r="L13" t="n">
-        <v>142.3612398939163</v>
+        <v>78.0252455144982</v>
       </c>
       <c r="M13" t="n">
-        <v>217.3921129089532</v>
+        <v>153.056118529535</v>
       </c>
       <c r="N13" t="n">
-        <v>296.0735358877926</v>
+        <v>231.7375415083744</v>
       </c>
       <c r="O13" t="n">
-        <v>352.7322694515976</v>
+        <v>372.9282399275027</v>
       </c>
       <c r="P13" t="n">
-        <v>377.6929218852367</v>
+        <v>397.8888923611418</v>
       </c>
       <c r="Q13" t="n">
-        <v>397.8888923611414</v>
+        <v>397.8888923611418</v>
       </c>
       <c r="R13" t="n">
-        <v>397.8888923611414</v>
+        <v>397.8888923611418</v>
       </c>
       <c r="S13" t="n">
-        <v>368.2260542031076</v>
+        <v>368.226054203108</v>
       </c>
       <c r="T13" t="n">
-        <v>331.5256030529178</v>
+        <v>331.5256030529181</v>
       </c>
       <c r="U13" t="n">
-        <v>234.8779860670189</v>
+        <v>234.8779860670192</v>
       </c>
       <c r="V13" t="n">
-        <v>172.744296270385</v>
+        <v>172.7442962703852</v>
       </c>
       <c r="W13" t="n">
-        <v>75.87792464267724</v>
+        <v>75.87792464267739</v>
       </c>
       <c r="X13" t="n">
-        <v>40.43917215391281</v>
+        <v>40.43917215391288</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>311.2314387805974</v>
+        <v>225.5361111123179</v>
       </c>
       <c r="C14" t="n">
-        <v>311.2314387805974</v>
+        <v>157.2239713609559</v>
       </c>
       <c r="D14" t="n">
-        <v>311.2314387805974</v>
+        <v>157.2239713609559</v>
       </c>
       <c r="E14" t="n">
-        <v>311.2314387805974</v>
+        <v>157.2239713609559</v>
       </c>
       <c r="F14" t="n">
-        <v>311.2314387805974</v>
+        <v>157.2239713609559</v>
       </c>
       <c r="G14" t="n">
         <v>157.2239713609559</v>
       </c>
       <c r="H14" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I14" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J14" t="n">
-        <v>43.6318927683546</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="K14" t="n">
-        <v>194.5746115863452</v>
+        <v>163.1401102376263</v>
       </c>
       <c r="L14" t="n">
-        <v>262.827782722425</v>
+        <v>314.0828290556171</v>
       </c>
       <c r="M14" t="n">
-        <v>413.7705015404156</v>
+        <v>314.0828290556171</v>
       </c>
       <c r="N14" t="n">
-        <v>564.7132203584061</v>
+        <v>465.0255478736078</v>
       </c>
       <c r="O14" t="n">
-        <v>564.7132203584061</v>
+        <v>465.0255478736078</v>
       </c>
       <c r="P14" t="n">
-        <v>564.7132203584061</v>
+        <v>564.7132203584067</v>
       </c>
       <c r="Q14" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R14" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="S14" t="n">
-        <v>603.1407381207675</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="T14" t="n">
-        <v>572.618926176099</v>
+        <v>579.3477590371122</v>
       </c>
       <c r="U14" t="n">
-        <v>511.3268346052644</v>
+        <v>518.0556674662773</v>
       </c>
       <c r="V14" t="n">
-        <v>511.3268346052644</v>
+        <v>379.5435785319596</v>
       </c>
       <c r="W14" t="n">
-        <v>511.3268346052644</v>
+        <v>379.5435785319596</v>
       </c>
       <c r="X14" t="n">
-        <v>465.2389062002388</v>
+        <v>379.5435785319596</v>
       </c>
       <c r="Y14" t="n">
-        <v>465.2389062002388</v>
+        <v>225.5361111123179</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="C15" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="D15" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="E15" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="F15" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="G15" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H15" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I15" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J15" t="n">
-        <v>12.1973914196356</v>
+        <v>37.22618539203669</v>
       </c>
       <c r="K15" t="n">
-        <v>12.1973914196356</v>
+        <v>188.1689042100274</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1401102376262</v>
+        <v>188.1689042100274</v>
       </c>
       <c r="M15" t="n">
-        <v>307.984133345799</v>
+        <v>203.7745929006852</v>
       </c>
       <c r="N15" t="n">
-        <v>307.984133345799</v>
+        <v>354.7173117186759</v>
       </c>
       <c r="O15" t="n">
-        <v>458.9268521637896</v>
+        <v>505.6600305366667</v>
       </c>
       <c r="P15" t="n">
-        <v>609.8695709817802</v>
+        <v>505.6600305366667</v>
       </c>
       <c r="Q15" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R15" t="n">
-        <v>525.9776511581168</v>
+        <v>574.9306971429894</v>
       </c>
       <c r="S15" t="n">
-        <v>525.9776511581168</v>
+        <v>420.9232297233478</v>
       </c>
       <c r="T15" t="n">
-        <v>517.4635081646177</v>
+        <v>412.4090867298487</v>
       </c>
       <c r="U15" t="n">
-        <v>477.9181731643425</v>
+        <v>258.4016193102071</v>
       </c>
       <c r="V15" t="n">
-        <v>323.910705744701</v>
+        <v>104.3941518905655</v>
       </c>
       <c r="W15" t="n">
-        <v>262.2241474257522</v>
+        <v>42.70759357161666</v>
       </c>
       <c r="X15" t="n">
-        <v>246.9234456294723</v>
+        <v>27.40689177533669</v>
       </c>
       <c r="Y15" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
     </row>
     <row r="16">
@@ -5410,58 +5410,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="C16" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="D16" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="E16" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="F16" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="G16" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H16" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I16" t="n">
-        <v>12.1973914196356</v>
+        <v>53.89676205049405</v>
       </c>
       <c r="J16" t="n">
-        <v>12.1973914196356</v>
+        <v>53.89676205049405</v>
       </c>
       <c r="K16" t="n">
-        <v>16.71624022537764</v>
+        <v>77.76842911565421</v>
       </c>
       <c r="L16" t="n">
-        <v>86.64536456686761</v>
+        <v>139.0774344047747</v>
       </c>
       <c r="M16" t="n">
-        <v>237.5880833848582</v>
+        <v>214.1083074198116</v>
       </c>
       <c r="N16" t="n">
-        <v>316.2695063636976</v>
+        <v>292.7897303986509</v>
       </c>
       <c r="O16" t="n">
-        <v>372.9282399275027</v>
+        <v>349.4484639624559</v>
       </c>
       <c r="P16" t="n">
-        <v>397.8888923611418</v>
+        <v>374.409116396095</v>
       </c>
       <c r="Q16" t="n">
-        <v>397.8888923611418</v>
+        <v>374.409116396095</v>
       </c>
       <c r="R16" t="n">
         <v>397.8888923611418</v>
       </c>
       <c r="S16" t="n">
-        <v>368.2260542031079</v>
+        <v>368.226054203108</v>
       </c>
       <c r="T16" t="n">
         <v>331.5256030529181</v>
@@ -5470,16 +5470,16 @@
         <v>234.8779860670192</v>
       </c>
       <c r="V16" t="n">
-        <v>172.7442962703851</v>
+        <v>172.7442962703852</v>
       </c>
       <c r="W16" t="n">
-        <v>75.87792464267736</v>
+        <v>75.87792464267739</v>
       </c>
       <c r="X16" t="n">
-        <v>40.43917215391286</v>
+        <v>40.43917215391288</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.4338528248962</v>
+        <v>374.4338528248969</v>
       </c>
       <c r="C17" t="n">
-        <v>325.1914868360473</v>
+        <v>325.191486836048</v>
       </c>
       <c r="D17" t="n">
-        <v>286.6459391808597</v>
+        <v>286.6459391808604</v>
       </c>
       <c r="E17" t="n">
-        <v>220.5778375341783</v>
+        <v>220.577837534179</v>
       </c>
       <c r="F17" t="n">
-        <v>129.3120836961336</v>
+        <v>129.3120836961342</v>
       </c>
       <c r="G17" t="n">
-        <v>30.05461881864591</v>
+        <v>30.05461881864592</v>
       </c>
       <c r="H17" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I17" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J17" t="n">
-        <v>43.6318927683546</v>
+        <v>43.63189276835462</v>
       </c>
       <c r="K17" t="n">
-        <v>43.6318927683546</v>
+        <v>157.0414145278085</v>
       </c>
       <c r="L17" t="n">
-        <v>43.6318927683546</v>
+        <v>307.9841333457993</v>
       </c>
       <c r="M17" t="n">
-        <v>111.8850639044344</v>
+        <v>458.92685216379</v>
       </c>
       <c r="N17" t="n">
-        <v>262.827782722425</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="O17" t="n">
-        <v>413.7705015404156</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="P17" t="n">
-        <v>564.7132203584061</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="Q17" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R17" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="S17" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="T17" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="U17" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="V17" t="n">
-        <v>598.5268345897723</v>
+        <v>598.526834589773</v>
       </c>
       <c r="W17" t="n">
-        <v>565.478330271221</v>
+        <v>565.4783302712217</v>
       </c>
       <c r="X17" t="n">
-        <v>511.732722961704</v>
+        <v>511.7327229617047</v>
       </c>
       <c r="Y17" t="n">
-        <v>441.3135419374551</v>
+        <v>441.3135419374558</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12.1973914196356</v>
+        <v>147.8471687228559</v>
       </c>
       <c r="C18" t="n">
-        <v>12.1973914196356</v>
+        <v>147.8471687228559</v>
       </c>
       <c r="D18" t="n">
-        <v>12.1973914196356</v>
+        <v>147.8471687228559</v>
       </c>
       <c r="E18" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="F18" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="G18" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H18" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I18" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J18" t="n">
-        <v>12.1973914196356</v>
+        <v>37.22618539203669</v>
       </c>
       <c r="K18" t="n">
-        <v>163.1401102376262</v>
+        <v>37.22618539203669</v>
       </c>
       <c r="L18" t="n">
-        <v>307.984133345799</v>
+        <v>188.1689042100274</v>
       </c>
       <c r="M18" t="n">
-        <v>307.984133345799</v>
+        <v>188.1689042100274</v>
       </c>
       <c r="N18" t="n">
-        <v>307.984133345799</v>
+        <v>339.1116230280181</v>
       </c>
       <c r="O18" t="n">
-        <v>458.9268521637896</v>
+        <v>458.92685216379</v>
       </c>
       <c r="P18" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="Q18" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R18" t="n">
-        <v>525.9776511581168</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="S18" t="n">
-        <v>371.9701837384754</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="T18" t="n">
-        <v>371.9701837384754</v>
+        <v>455.8621035621391</v>
       </c>
       <c r="U18" t="n">
-        <v>371.9701837384754</v>
+        <v>301.8546361424975</v>
       </c>
       <c r="V18" t="n">
-        <v>217.9627163188339</v>
+        <v>147.8471687228559</v>
       </c>
       <c r="W18" t="n">
-        <v>63.95524889919244</v>
+        <v>147.8471687228559</v>
       </c>
       <c r="X18" t="n">
-        <v>12.1973914196356</v>
+        <v>147.8471687228559</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.1973914196356</v>
+        <v>147.8471687228559</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.1973914196356</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="C19" t="n">
-        <v>12.1973914196356</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="D19" t="n">
-        <v>12.1973914196356</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="E19" t="n">
-        <v>12.1973914196356</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="F19" t="n">
-        <v>12.1973914196356</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="G19" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H19" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I19" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J19" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="K19" t="n">
-        <v>16.71624022537764</v>
+        <v>16.71624022537765</v>
       </c>
       <c r="L19" t="n">
-        <v>78.02524551449818</v>
+        <v>78.0252455144982</v>
       </c>
       <c r="M19" t="n">
         <v>153.056118529535</v>
@@ -5692,31 +5692,31 @@
         <v>313.3569275058185</v>
       </c>
       <c r="Q19" t="n">
-        <v>245.8601228647226</v>
+        <v>313.3569275058185</v>
       </c>
       <c r="R19" t="n">
-        <v>245.8601228647226</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="S19" t="n">
-        <v>245.8601228647226</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="T19" t="n">
-        <v>245.8601228647226</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="U19" t="n">
-        <v>245.8601228647226</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="V19" t="n">
-        <v>245.8601228647226</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="W19" t="n">
-        <v>245.8601228647226</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="X19" t="n">
-        <v>245.8601228647226</v>
+        <v>159.3494600861769</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.2048588392771</v>
+        <v>159.3494600861769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.4338528248962</v>
+        <v>374.4338528248968</v>
       </c>
       <c r="C20" t="n">
-        <v>325.1914868360485</v>
+        <v>325.1914868360479</v>
       </c>
       <c r="D20" t="n">
-        <v>286.6459391808609</v>
+        <v>286.6459391808603</v>
       </c>
       <c r="E20" t="n">
-        <v>220.5778375341795</v>
+        <v>220.5778375341789</v>
       </c>
       <c r="F20" t="n">
-        <v>129.3120836961348</v>
+        <v>129.3120836961344</v>
       </c>
       <c r="G20" t="n">
-        <v>30.05461881864592</v>
+        <v>30.05461881864593</v>
       </c>
       <c r="H20" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I20" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J20" t="n">
-        <v>43.6318927683546</v>
+        <v>43.63189276835462</v>
       </c>
       <c r="K20" t="n">
-        <v>111.8850639044344</v>
+        <v>111.8850639044345</v>
       </c>
       <c r="L20" t="n">
-        <v>111.8850639044344</v>
+        <v>262.8277827224252</v>
       </c>
       <c r="M20" t="n">
-        <v>111.8850639044344</v>
+        <v>413.770501540416</v>
       </c>
       <c r="N20" t="n">
-        <v>262.827782722425</v>
+        <v>413.770501540416</v>
       </c>
       <c r="O20" t="n">
-        <v>413.7705015404156</v>
+        <v>413.770501540416</v>
       </c>
       <c r="P20" t="n">
-        <v>564.7132203584061</v>
+        <v>564.7132203584067</v>
       </c>
       <c r="Q20" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R20" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="S20" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="T20" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="U20" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="V20" t="n">
-        <v>598.5268345897723</v>
+        <v>598.5268345897729</v>
       </c>
       <c r="W20" t="n">
-        <v>565.478330271221</v>
+        <v>565.4783302712216</v>
       </c>
       <c r="X20" t="n">
-        <v>511.732722961704</v>
+        <v>511.7327229617046</v>
       </c>
       <c r="Y20" t="n">
-        <v>441.3135419374552</v>
+        <v>441.3135419374556</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.1973914196356</v>
+        <v>451.1919648213176</v>
       </c>
       <c r="C21" t="n">
-        <v>12.1973914196356</v>
+        <v>297.184497401676</v>
       </c>
       <c r="D21" t="n">
-        <v>12.1973914196356</v>
+        <v>297.184497401676</v>
       </c>
       <c r="E21" t="n">
-        <v>12.1973914196356</v>
+        <v>297.184497401676</v>
       </c>
       <c r="F21" t="n">
-        <v>12.1973914196356</v>
+        <v>150.649939428561</v>
       </c>
       <c r="G21" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H21" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I21" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J21" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="K21" t="n">
-        <v>12.1973914196356</v>
+        <v>163.1401102376263</v>
       </c>
       <c r="L21" t="n">
-        <v>163.1401102376262</v>
+        <v>203.7745929006852</v>
       </c>
       <c r="M21" t="n">
-        <v>314.0828290556168</v>
+        <v>354.7173117186759</v>
       </c>
       <c r="N21" t="n">
-        <v>458.9268521637896</v>
+        <v>354.7173117186759</v>
       </c>
       <c r="O21" t="n">
-        <v>609.8695709817802</v>
+        <v>505.6600305366667</v>
       </c>
       <c r="P21" t="n">
-        <v>609.8695709817802</v>
+        <v>505.6600305366667</v>
       </c>
       <c r="Q21" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R21" t="n">
-        <v>525.9776511581168</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="S21" t="n">
-        <v>525.9776511581168</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="T21" t="n">
-        <v>525.9776511581168</v>
+        <v>605.1994322409593</v>
       </c>
       <c r="U21" t="n">
-        <v>474.21979367856</v>
+        <v>605.1994322409593</v>
       </c>
       <c r="V21" t="n">
-        <v>320.2123262589186</v>
+        <v>605.1994322409593</v>
       </c>
       <c r="W21" t="n">
-        <v>166.2048588392771</v>
+        <v>451.1919648213176</v>
       </c>
       <c r="X21" t="n">
-        <v>12.1973914196356</v>
+        <v>451.1919648213176</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.1973914196356</v>
+        <v>451.1919648213176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.1973914196356</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="C22" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="D22" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="E22" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="F22" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="G22" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H22" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I22" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J22" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="K22" t="n">
-        <v>16.71624022537764</v>
+        <v>16.71624022537765</v>
       </c>
       <c r="L22" t="n">
-        <v>78.02524551449818</v>
+        <v>78.0252455144982</v>
       </c>
       <c r="M22" t="n">
         <v>153.056118529535</v>
@@ -5929,31 +5929,31 @@
         <v>313.3569275058185</v>
       </c>
       <c r="Q22" t="n">
-        <v>313.3569275058185</v>
+        <v>245.8601228647226</v>
       </c>
       <c r="R22" t="n">
-        <v>166.2048588392771</v>
+        <v>245.8601228647226</v>
       </c>
       <c r="S22" t="n">
-        <v>166.2048588392771</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="T22" t="n">
-        <v>166.2048588392771</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="U22" t="n">
-        <v>166.2048588392771</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="V22" t="n">
-        <v>166.2048588392771</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="W22" t="n">
-        <v>166.2048588392771</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="X22" t="n">
-        <v>12.1973914196356</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.1973914196356</v>
+        <v>166.2048588392772</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.4338528248968</v>
+        <v>374.4338528248963</v>
       </c>
       <c r="C23" t="n">
-        <v>325.1914868360479</v>
+        <v>325.1914868360475</v>
       </c>
       <c r="D23" t="n">
-        <v>286.6459391808603</v>
+        <v>286.6459391808598</v>
       </c>
       <c r="E23" t="n">
-        <v>220.5778375341789</v>
+        <v>220.5778375341788</v>
       </c>
       <c r="F23" t="n">
-        <v>129.3120836961342</v>
+        <v>129.312083696134</v>
       </c>
       <c r="G23" t="n">
-        <v>30.05461881864591</v>
+        <v>30.05461881864599</v>
       </c>
       <c r="H23" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I23" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J23" t="n">
-        <v>43.6318927683546</v>
+        <v>43.63189276835462</v>
       </c>
       <c r="K23" t="n">
-        <v>194.5746115863452</v>
+        <v>157.0414145278085</v>
       </c>
       <c r="L23" t="n">
-        <v>307.984133345799</v>
+        <v>157.0414145278085</v>
       </c>
       <c r="M23" t="n">
-        <v>458.9268521637896</v>
+        <v>307.9841333457993</v>
       </c>
       <c r="N23" t="n">
-        <v>609.8695709817802</v>
+        <v>307.9841333457993</v>
       </c>
       <c r="O23" t="n">
-        <v>609.8695709817802</v>
+        <v>458.92685216379</v>
       </c>
       <c r="P23" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="Q23" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R23" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="S23" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="T23" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="U23" t="n">
-        <v>609.8695709817806</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="V23" t="n">
-        <v>598.5268345897729</v>
+        <v>598.5268345897728</v>
       </c>
       <c r="W23" t="n">
-        <v>565.4783302712216</v>
+        <v>565.4783302712215</v>
       </c>
       <c r="X23" t="n">
-        <v>511.7327229617046</v>
+        <v>511.7327229617042</v>
       </c>
       <c r="Y23" t="n">
-        <v>441.3135419374557</v>
+        <v>441.3135419374554</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="C24" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="D24" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="E24" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="F24" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="G24" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H24" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I24" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J24" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="K24" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="L24" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="M24" t="n">
-        <v>157.0414145278084</v>
+        <v>163.1401102376263</v>
       </c>
       <c r="N24" t="n">
-        <v>307.984133345799</v>
+        <v>307.9841333457993</v>
       </c>
       <c r="O24" t="n">
-        <v>458.9268521637896</v>
+        <v>458.92685216379</v>
       </c>
       <c r="P24" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="Q24" t="n">
-        <v>609.8695709817802</v>
+        <v>609.8695709817807</v>
       </c>
       <c r="R24" t="n">
-        <v>525.9776511581168</v>
+        <v>525.9776511581174</v>
       </c>
       <c r="S24" t="n">
-        <v>371.9701837384754</v>
+        <v>474.2197936785604</v>
       </c>
       <c r="T24" t="n">
-        <v>217.9627163188339</v>
+        <v>474.2197936785604</v>
       </c>
       <c r="U24" t="n">
-        <v>92.91597820983081</v>
+        <v>474.2197936785604</v>
       </c>
       <c r="V24" t="n">
-        <v>92.91597820983081</v>
+        <v>320.2123262589188</v>
       </c>
       <c r="W24" t="n">
-        <v>92.91597820983081</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="X24" t="n">
-        <v>92.91597820983081</v>
+        <v>166.2048588392772</v>
       </c>
       <c r="Y24" t="n">
-        <v>92.91597820983081</v>
+        <v>12.19739141963561</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>313.3569275058185</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="C25" t="n">
-        <v>162.3140308319713</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="D25" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="E25" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="F25" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="G25" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="H25" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="I25" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="J25" t="n">
-        <v>12.1973914196356</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="K25" t="n">
-        <v>16.71624022537764</v>
+        <v>16.71624022537765</v>
       </c>
       <c r="L25" t="n">
-        <v>78.02524551449818</v>
+        <v>78.0252455144982</v>
       </c>
       <c r="M25" t="n">
         <v>153.056118529535</v>
@@ -6166,31 +6166,31 @@
         <v>313.3569275058185</v>
       </c>
       <c r="Q25" t="n">
-        <v>313.3569275058185</v>
+        <v>245.8601228647226</v>
       </c>
       <c r="R25" t="n">
-        <v>313.3569275058185</v>
+        <v>245.8601228647226</v>
       </c>
       <c r="S25" t="n">
-        <v>313.3569275058185</v>
+        <v>245.8601228647226</v>
       </c>
       <c r="T25" t="n">
-        <v>313.3569275058185</v>
+        <v>245.8601228647226</v>
       </c>
       <c r="U25" t="n">
-        <v>313.3569275058185</v>
+        <v>91.85265544508098</v>
       </c>
       <c r="V25" t="n">
-        <v>313.3569275058185</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="W25" t="n">
-        <v>313.3569275058185</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="X25" t="n">
-        <v>313.3569275058185</v>
+        <v>12.19739141963561</v>
       </c>
       <c r="Y25" t="n">
-        <v>313.3569275058185</v>
+        <v>12.19739141963561</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1413.236109846079</v>
+        <v>1413.23610984608</v>
       </c>
       <c r="C26" t="n">
-        <v>1203.259823347722</v>
+        <v>1203.259823347723</v>
       </c>
       <c r="D26" t="n">
         <v>1003.980355183027</v>
       </c>
       <c r="E26" t="n">
-        <v>777.1783330268374</v>
+        <v>777.1783330268381</v>
       </c>
       <c r="F26" t="n">
-        <v>525.1786586792849</v>
+        <v>525.1786586792855</v>
       </c>
       <c r="G26" t="n">
-        <v>265.187273292288</v>
+        <v>265.1872732922893</v>
       </c>
       <c r="H26" t="n">
-        <v>86.59612538376997</v>
+        <v>86.59612538377024</v>
       </c>
       <c r="I26" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657227</v>
       </c>
       <c r="J26" t="n">
-        <v>240.2884632215494</v>
+        <v>240.2884632215492</v>
       </c>
       <c r="K26" t="n">
-        <v>525.9811289635179</v>
+        <v>563.9678408933613</v>
       </c>
       <c r="L26" t="n">
-        <v>786.4991747085348</v>
+        <v>980.3082910946362</v>
       </c>
       <c r="M26" t="n">
-        <v>1248.80464698255</v>
+        <v>1442.613763368652</v>
       </c>
       <c r="N26" t="n">
-        <v>1701.437338166227</v>
+        <v>1895.246454552328</v>
       </c>
       <c r="O26" t="n">
-        <v>2092.341641999713</v>
+        <v>2130.328353929556</v>
       </c>
       <c r="P26" t="n">
-        <v>2411.126625854939</v>
+        <v>2411.126625854943</v>
       </c>
       <c r="Q26" t="n">
-        <v>2612.105380934571</v>
+        <v>2612.105380934574</v>
       </c>
       <c r="R26" t="n">
-        <v>2651.57787082861</v>
+        <v>2651.577870828613</v>
       </c>
       <c r="S26" t="n">
-        <v>2611.2844700004</v>
+        <v>2611.284470000403</v>
       </c>
       <c r="T26" t="n">
-        <v>2547.198090088534</v>
+        <v>2547.198090088536</v>
       </c>
       <c r="U26" t="n">
-        <v>2452.341430550501</v>
+        <v>2452.341430550504</v>
       </c>
       <c r="V26" t="n">
-        <v>2280.264773648986</v>
+        <v>2280.264773648988</v>
       </c>
       <c r="W26" t="n">
-        <v>2086.482348820927</v>
+        <v>2086.482348820929</v>
       </c>
       <c r="X26" t="n">
-        <v>1872.002821001902</v>
+        <v>1872.002821001904</v>
       </c>
       <c r="Y26" t="n">
-        <v>1640.849719468145</v>
+        <v>1640.849719468147</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>323.3828811617841</v>
+        <v>502.6710964623368</v>
       </c>
       <c r="C27" t="n">
-        <v>148.9298518806571</v>
+        <v>487.2042976232646</v>
       </c>
       <c r="D27" t="n">
-        <v>148.9298518806571</v>
+        <v>338.2698879620133</v>
       </c>
       <c r="E27" t="n">
-        <v>148.6786273172567</v>
+        <v>338.0186633986127</v>
       </c>
       <c r="F27" t="n">
-        <v>53.03155741657221</v>
+        <v>191.4841054254977</v>
       </c>
       <c r="G27" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657227</v>
       </c>
       <c r="H27" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657227</v>
       </c>
       <c r="I27" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657227</v>
       </c>
       <c r="J27" t="n">
-        <v>78.06035138897329</v>
+        <v>78.06035138897334</v>
       </c>
       <c r="K27" t="n">
-        <v>247.4593899302672</v>
+        <v>247.4593899302673</v>
       </c>
       <c r="L27" t="n">
-        <v>536.6416986756437</v>
+        <v>536.6416986756439</v>
       </c>
       <c r="M27" t="n">
-        <v>926.0830347734875</v>
+        <v>926.0830347734877</v>
       </c>
       <c r="N27" t="n">
         <v>1341.538737606436</v>
@@ -6327,28 +6327,28 @@
         <v>1994.118197793104</v>
       </c>
       <c r="R27" t="n">
-        <v>1994.118197793104</v>
+        <v>1910.226277969441</v>
       </c>
       <c r="S27" t="n">
-        <v>1825.869734054405</v>
+        <v>1741.977814230742</v>
       </c>
       <c r="T27" t="n">
-        <v>1624.804792651653</v>
+        <v>1645.106777510151</v>
       </c>
       <c r="U27" t="n">
-        <v>1396.599482112283</v>
+        <v>1416.901466970781</v>
       </c>
       <c r="V27" t="n">
-        <v>1161.44737388054</v>
+        <v>1181.749358739038</v>
       </c>
       <c r="W27" t="n">
-        <v>907.2100171523389</v>
+        <v>927.5120020108367</v>
       </c>
       <c r="X27" t="n">
-        <v>699.358516946806</v>
+        <v>719.6605018053039</v>
       </c>
       <c r="Y27" t="n">
-        <v>491.5982181818521</v>
+        <v>511.9002030403499</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.25520419662655</v>
+        <v>62.98150990242431</v>
       </c>
       <c r="C28" t="n">
-        <v>66.30525171077471</v>
+        <v>53.03155741657227</v>
       </c>
       <c r="D28" t="n">
-        <v>66.30525171077471</v>
+        <v>53.03155741657227</v>
       </c>
       <c r="E28" t="n">
-        <v>66.30525171077471</v>
+        <v>63.88433885272676</v>
       </c>
       <c r="F28" t="n">
-        <v>66.30525171077471</v>
+        <v>66.30525171077518</v>
       </c>
       <c r="G28" t="n">
-        <v>55.83692264630074</v>
+        <v>55.83692264630101</v>
       </c>
       <c r="H28" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657227</v>
       </c>
       <c r="I28" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657227</v>
       </c>
       <c r="J28" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657227</v>
       </c>
       <c r="K28" t="n">
-        <v>57.55040622231424</v>
+        <v>213.3728106785723</v>
       </c>
       <c r="L28" t="n">
-        <v>118.8594115114348</v>
+        <v>274.6818159676928</v>
       </c>
       <c r="M28" t="n">
-        <v>349.7126889827298</v>
+        <v>399.7720650126738</v>
       </c>
       <c r="N28" t="n">
-        <v>584.2165164178273</v>
+        <v>478.4534879915132</v>
       </c>
       <c r="O28" t="n">
-        <v>704.2083203057764</v>
+        <v>535.1122215553182</v>
       </c>
       <c r="P28" t="n">
-        <v>729.1689727394155</v>
+        <v>715.8952784452152</v>
       </c>
       <c r="Q28" t="n">
-        <v>729.1689727394155</v>
+        <v>715.8952784452152</v>
       </c>
       <c r="R28" t="n">
-        <v>719.5609152967018</v>
+        <v>706.2872210025013</v>
       </c>
       <c r="S28" t="n">
-        <v>656.3335091714702</v>
+        <v>643.0598148772694</v>
       </c>
       <c r="T28" t="n">
-        <v>586.0684900540825</v>
+        <v>572.7947957598816</v>
       </c>
       <c r="U28" t="n">
-        <v>455.8563051009858</v>
+        <v>442.5826108067847</v>
       </c>
       <c r="V28" t="n">
-        <v>360.158047337154</v>
+        <v>346.8843530429526</v>
       </c>
       <c r="W28" t="n">
-        <v>229.7271077422485</v>
+        <v>216.4534134480469</v>
       </c>
       <c r="X28" t="n">
-        <v>160.7237872862862</v>
+        <v>147.4500929920844</v>
       </c>
       <c r="Y28" t="n">
-        <v>98.91743858481118</v>
+        <v>85.64374429060915</v>
       </c>
     </row>
     <row r="29">
@@ -6443,70 +6443,70 @@
         <v>1203.259823347722</v>
       </c>
       <c r="D29" t="n">
-        <v>1003.980355183027</v>
+        <v>1003.980355183026</v>
       </c>
       <c r="E29" t="n">
-        <v>777.1783330268381</v>
+        <v>777.1783330268368</v>
       </c>
       <c r="F29" t="n">
-        <v>525.1786586792857</v>
+        <v>525.1786586792841</v>
       </c>
       <c r="G29" t="n">
-        <v>265.1872732922898</v>
+        <v>265.187273292288</v>
       </c>
       <c r="H29" t="n">
-        <v>86.59612538376992</v>
+        <v>86.59612538377021</v>
       </c>
       <c r="I29" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="J29" t="n">
-        <v>240.2884632215494</v>
+        <v>240.2884632215492</v>
       </c>
       <c r="K29" t="n">
-        <v>563.9678408933618</v>
+        <v>563.9678408933613</v>
       </c>
       <c r="L29" t="n">
-        <v>824.4858866383786</v>
+        <v>824.4858866383781</v>
       </c>
       <c r="M29" t="n">
-        <v>1248.80464698255</v>
+        <v>1286.791358912394</v>
       </c>
       <c r="N29" t="n">
-        <v>1701.437338166227</v>
+        <v>1739.42405009607</v>
       </c>
       <c r="O29" t="n">
-        <v>2092.341641999713</v>
+        <v>2130.328353929556</v>
       </c>
       <c r="P29" t="n">
-        <v>2411.126625854939</v>
+        <v>2411.126625854942</v>
       </c>
       <c r="Q29" t="n">
-        <v>2612.105380934571</v>
+        <v>2612.105380934574</v>
       </c>
       <c r="R29" t="n">
-        <v>2651.57787082861</v>
+        <v>2651.577870828613</v>
       </c>
       <c r="S29" t="n">
-        <v>2611.2844700004</v>
+        <v>2611.284470000401</v>
       </c>
       <c r="T29" t="n">
-        <v>2547.198090088534</v>
+        <v>2547.198090088535</v>
       </c>
       <c r="U29" t="n">
-        <v>2452.341430550502</v>
+        <v>2452.341430550503</v>
       </c>
       <c r="V29" t="n">
-        <v>2280.264773648986</v>
+        <v>2280.264773648987</v>
       </c>
       <c r="W29" t="n">
-        <v>2086.482348820927</v>
+        <v>2086.482348820928</v>
       </c>
       <c r="X29" t="n">
         <v>1872.002821001902</v>
       </c>
       <c r="Y29" t="n">
-        <v>1640.849719468146</v>
+        <v>1640.849719468145</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>682.191009337521</v>
+        <v>398.4771917801757</v>
       </c>
       <c r="C30" t="n">
-        <v>507.737980056394</v>
+        <v>224.0241624990487</v>
       </c>
       <c r="D30" t="n">
-        <v>358.8035703951427</v>
+        <v>224.0241624990487</v>
       </c>
       <c r="E30" t="n">
-        <v>199.5661153896872</v>
+        <v>223.7729379356481</v>
       </c>
       <c r="F30" t="n">
-        <v>53.03155741657221</v>
+        <v>223.7729379356481</v>
       </c>
       <c r="G30" t="n">
-        <v>53.03155741657221</v>
+        <v>133.7501442067675</v>
       </c>
       <c r="H30" t="n">
-        <v>53.03155741657221</v>
+        <v>133.7501442067675</v>
       </c>
       <c r="I30" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="J30" t="n">
-        <v>78.06035138897329</v>
+        <v>78.06035138897332</v>
       </c>
       <c r="K30" t="n">
-        <v>247.4593899302672</v>
+        <v>247.4593899302673</v>
       </c>
       <c r="L30" t="n">
         <v>536.6416986756437</v>
@@ -6564,28 +6564,28 @@
         <v>1994.118197793104</v>
       </c>
       <c r="R30" t="n">
-        <v>1994.118197793104</v>
+        <v>1910.22627796944</v>
       </c>
       <c r="S30" t="n">
-        <v>1984.85596449646</v>
+        <v>1741.977814230742</v>
       </c>
       <c r="T30" t="n">
-        <v>1942.777253535764</v>
+        <v>1540.91287282799</v>
       </c>
       <c r="U30" t="n">
-        <v>1755.40761028802</v>
+        <v>1312.70756228862</v>
       </c>
       <c r="V30" t="n">
-        <v>1520.255502056277</v>
+        <v>1077.555454056877</v>
       </c>
       <c r="W30" t="n">
-        <v>1266.018145328076</v>
+        <v>823.3180973286755</v>
       </c>
       <c r="X30" t="n">
-        <v>1058.166645122543</v>
+        <v>615.4665971231427</v>
       </c>
       <c r="Y30" t="n">
-        <v>850.406346357589</v>
+        <v>566.6925288002437</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.25520419662638</v>
+        <v>62.98150990242429</v>
       </c>
       <c r="C31" t="n">
-        <v>66.3052517107746</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="D31" t="n">
-        <v>66.3052517107746</v>
+        <v>54.44968479721913</v>
       </c>
       <c r="E31" t="n">
-        <v>66.3052517107746</v>
+        <v>54.44968479721913</v>
       </c>
       <c r="F31" t="n">
-        <v>66.3052517107746</v>
+        <v>66.30525171077517</v>
       </c>
       <c r="G31" t="n">
-        <v>55.83692264630068</v>
+        <v>55.83692264630098</v>
       </c>
       <c r="H31" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="I31" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="J31" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="K31" t="n">
-        <v>57.55040622231424</v>
+        <v>213.3728106785723</v>
       </c>
       <c r="L31" t="n">
-        <v>274.681815967693</v>
+        <v>324.741191997637</v>
       </c>
       <c r="M31" t="n">
-        <v>505.535093438988</v>
+        <v>399.7720650126738</v>
       </c>
       <c r="N31" t="n">
-        <v>584.2165164178274</v>
+        <v>478.4534879915132</v>
       </c>
       <c r="O31" t="n">
-        <v>704.2083203057758</v>
+        <v>690.9346260115761</v>
       </c>
       <c r="P31" t="n">
-        <v>729.1689727394149</v>
+        <v>715.8952784452152</v>
       </c>
       <c r="Q31" t="n">
-        <v>729.1689727394149</v>
+        <v>715.8952784452152</v>
       </c>
       <c r="R31" t="n">
-        <v>719.5609152967012</v>
+        <v>706.2872210025013</v>
       </c>
       <c r="S31" t="n">
-        <v>656.3335091714697</v>
+        <v>643.0598148772694</v>
       </c>
       <c r="T31" t="n">
-        <v>586.0684900540821</v>
+        <v>572.7947957598816</v>
       </c>
       <c r="U31" t="n">
-        <v>455.8563051009854</v>
+        <v>442.5826108067847</v>
       </c>
       <c r="V31" t="n">
-        <v>360.1580473371537</v>
+        <v>346.8843530429526</v>
       </c>
       <c r="W31" t="n">
-        <v>229.7271077422481</v>
+        <v>216.4534134480468</v>
       </c>
       <c r="X31" t="n">
-        <v>160.7237872862859</v>
+        <v>147.4500929920844</v>
       </c>
       <c r="Y31" t="n">
-        <v>98.91743858481095</v>
+        <v>85.64374429060913</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1413.236109846078</v>
       </c>
       <c r="C32" t="n">
-        <v>1203.259823347721</v>
+        <v>1203.259823347722</v>
       </c>
       <c r="D32" t="n">
         <v>1003.980355183026</v>
       </c>
       <c r="E32" t="n">
-        <v>777.1783330268372</v>
+        <v>777.1783330268366</v>
       </c>
       <c r="F32" t="n">
-        <v>525.1786586792846</v>
+        <v>525.1786586792839</v>
       </c>
       <c r="G32" t="n">
-        <v>265.1872732922886</v>
+        <v>265.1872732922883</v>
       </c>
       <c r="H32" t="n">
-        <v>86.59612538376994</v>
+        <v>86.59612538377016</v>
       </c>
       <c r="I32" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="J32" t="n">
-        <v>240.2884632215494</v>
+        <v>240.2884632215493</v>
       </c>
       <c r="K32" t="n">
-        <v>563.9678408933618</v>
+        <v>408.1454364371033</v>
       </c>
       <c r="L32" t="n">
-        <v>980.3082910946368</v>
+        <v>824.4858866383781</v>
       </c>
       <c r="M32" t="n">
-        <v>1442.613763368653</v>
+        <v>1286.791358912394</v>
       </c>
       <c r="N32" t="n">
-        <v>1895.246454552329</v>
+        <v>1701.437338166229</v>
       </c>
       <c r="O32" t="n">
-        <v>2286.150758385816</v>
+        <v>2092.341641999716</v>
       </c>
       <c r="P32" t="n">
-        <v>2449.113337784783</v>
+        <v>2411.126625854941</v>
       </c>
       <c r="Q32" t="n">
-        <v>2612.105380934571</v>
+        <v>2612.105380934574</v>
       </c>
       <c r="R32" t="n">
-        <v>2651.57787082861</v>
+        <v>2651.577870828613</v>
       </c>
       <c r="S32" t="n">
-        <v>2611.2844700004</v>
+        <v>2611.284470000402</v>
       </c>
       <c r="T32" t="n">
-        <v>2547.198090088533</v>
+        <v>2547.198090088535</v>
       </c>
       <c r="U32" t="n">
-        <v>2452.341430550501</v>
+        <v>2452.341430550502</v>
       </c>
       <c r="V32" t="n">
-        <v>2280.264773648985</v>
+        <v>2280.264773648986</v>
       </c>
       <c r="W32" t="n">
-        <v>2086.482348820926</v>
+        <v>2086.482348820927</v>
       </c>
       <c r="X32" t="n">
-        <v>1872.002821001901</v>
+        <v>1872.002821001902</v>
       </c>
       <c r="Y32" t="n">
-        <v>1640.849719468144</v>
+        <v>1640.849719468145</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>661.6573269043912</v>
+        <v>515.1227689312765</v>
       </c>
       <c r="C33" t="n">
-        <v>646.1905280653193</v>
+        <v>340.6697396501495</v>
       </c>
       <c r="D33" t="n">
-        <v>497.2561184040681</v>
+        <v>191.7353299888982</v>
       </c>
       <c r="E33" t="n">
-        <v>338.0186633986126</v>
+        <v>191.4841054254976</v>
       </c>
       <c r="F33" t="n">
         <v>191.4841054254976</v>
       </c>
       <c r="G33" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="H33" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="I33" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="J33" t="n">
-        <v>78.06035138897329</v>
+        <v>78.06035138897332</v>
       </c>
       <c r="K33" t="n">
-        <v>247.4593899302672</v>
+        <v>247.4593899302673</v>
       </c>
       <c r="L33" t="n">
         <v>536.6416986756437</v>
@@ -6801,28 +6801,28 @@
         <v>1994.118197793104</v>
       </c>
       <c r="R33" t="n">
-        <v>1994.118197793104</v>
+        <v>1910.22627796944</v>
       </c>
       <c r="S33" t="n">
-        <v>1984.85596449646</v>
+        <v>1741.977814230742</v>
       </c>
       <c r="T33" t="n">
-        <v>1942.777253535764</v>
+        <v>1540.91287282799</v>
       </c>
       <c r="U33" t="n">
-        <v>1734.87392785489</v>
+        <v>1312.70756228862</v>
       </c>
       <c r="V33" t="n">
-        <v>1499.721819623147</v>
+        <v>1077.555454056877</v>
       </c>
       <c r="W33" t="n">
-        <v>1245.484462894946</v>
+        <v>939.9636744797762</v>
       </c>
       <c r="X33" t="n">
-        <v>1037.632962689413</v>
+        <v>891.0984047162983</v>
       </c>
       <c r="Y33" t="n">
-        <v>829.8726639244592</v>
+        <v>683.3381059513445</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.5621180283985</v>
+        <v>62.98150990242424</v>
       </c>
       <c r="C34" t="n">
-        <v>57.61216554254669</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="D34" t="n">
-        <v>66.30525171077466</v>
+        <v>54.44968479721895</v>
       </c>
       <c r="E34" t="n">
-        <v>66.30525171077466</v>
+        <v>54.44968479721895</v>
       </c>
       <c r="F34" t="n">
-        <v>66.30525171077466</v>
+        <v>66.30525171077504</v>
       </c>
       <c r="G34" t="n">
-        <v>55.83692264630071</v>
+        <v>55.83692264630092</v>
       </c>
       <c r="H34" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="I34" t="n">
-        <v>53.03155741657221</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="J34" t="n">
-        <v>132.5943380888461</v>
+        <v>53.03155741657225</v>
       </c>
       <c r="K34" t="n">
-        <v>137.1131868945881</v>
+        <v>57.55040622231429</v>
       </c>
       <c r="L34" t="n">
-        <v>329.3218001236089</v>
+        <v>118.8594115114348</v>
       </c>
       <c r="M34" t="n">
-        <v>560.1750775949039</v>
+        <v>243.949660556415</v>
       </c>
       <c r="N34" t="n">
-        <v>638.8565005737432</v>
+        <v>478.4534879915124</v>
       </c>
       <c r="O34" t="n">
-        <v>695.5152341375483</v>
+        <v>535.1122215553174</v>
       </c>
       <c r="P34" t="n">
-        <v>720.4758865711874</v>
+        <v>715.8952784452146</v>
       </c>
       <c r="Q34" t="n">
-        <v>720.4758865711874</v>
+        <v>715.8952784452146</v>
       </c>
       <c r="R34" t="n">
-        <v>710.8678291284737</v>
+        <v>706.2872210025007</v>
       </c>
       <c r="S34" t="n">
-        <v>647.6404230032421</v>
+        <v>643.059814877269</v>
       </c>
       <c r="T34" t="n">
-        <v>577.3754038858544</v>
+        <v>572.7947957598811</v>
       </c>
       <c r="U34" t="n">
-        <v>447.1632189327577</v>
+        <v>442.5826108067843</v>
       </c>
       <c r="V34" t="n">
-        <v>351.4649611689259</v>
+        <v>346.8843530429523</v>
       </c>
       <c r="W34" t="n">
-        <v>221.0340215740204</v>
+        <v>216.4534134480466</v>
       </c>
       <c r="X34" t="n">
-        <v>152.0307011180581</v>
+        <v>147.4500929920842</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.2243524165831</v>
+        <v>85.64374429060902</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>1125.713745489982</v>
       </c>
       <c r="C35" t="n">
-        <v>956.0308598198354</v>
+        <v>956.030859819836</v>
       </c>
       <c r="D35" t="n">
-        <v>797.0447924833504</v>
+        <v>797.0447924833508</v>
       </c>
       <c r="E35" t="n">
-        <v>610.5361711553717</v>
+        <v>610.5361711553718</v>
       </c>
       <c r="F35" t="n">
-        <v>398.8298976360296</v>
+        <v>398.8298976360295</v>
       </c>
       <c r="G35" t="n">
-        <v>179.1319130772443</v>
+        <v>179.1319130772445</v>
       </c>
       <c r="H35" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="I35" t="n">
-        <v>47.42909508401508</v>
+        <v>47.42909508401495</v>
       </c>
       <c r="J35" t="n">
-        <v>78.86359643273408</v>
+        <v>78.86359643273394</v>
       </c>
       <c r="K35" t="n">
-        <v>246.7205696482882</v>
+        <v>246.720569648288</v>
       </c>
       <c r="L35" t="n">
-        <v>507.2386153933051</v>
+        <v>702.5525820012919</v>
       </c>
       <c r="M35" t="n">
-        <v>813.7216832110626</v>
+        <v>1027.419165066089</v>
       </c>
       <c r="N35" t="n">
-        <v>1110.531969938481</v>
+        <v>1324.229451793507</v>
       </c>
       <c r="O35" t="n">
-        <v>1363.997384562746</v>
+        <v>1754.625317778723</v>
       </c>
       <c r="P35" t="n">
-        <v>1722.273930569701</v>
+        <v>1917.58789717769</v>
       </c>
       <c r="Q35" t="n">
-        <v>1962.744247801062</v>
+        <v>1962.744247801064</v>
       </c>
       <c r="R35" t="n">
-        <v>2041.70829984683</v>
+        <v>2041.708299846832</v>
       </c>
       <c r="S35" t="n">
-        <v>2041.70829984683</v>
+        <v>2041.708299846832</v>
       </c>
       <c r="T35" t="n">
-        <v>2017.915320763174</v>
+        <v>2017.915320763176</v>
       </c>
       <c r="U35" t="n">
-        <v>1963.352062053352</v>
+        <v>1963.352062053354</v>
       </c>
       <c r="V35" t="n">
-        <v>1831.568805980047</v>
+        <v>1831.568805980048</v>
       </c>
       <c r="W35" t="n">
-        <v>1678.079781980199</v>
+        <v>1678.0797819802</v>
       </c>
       <c r="X35" t="n">
-        <v>1503.893654989384</v>
+        <v>1503.893654989385</v>
       </c>
       <c r="Y35" t="n">
-        <v>1313.033954283838</v>
+        <v>1313.033954283839</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>712.4593567207108</v>
+        <v>633.9931366456838</v>
       </c>
       <c r="C36" t="n">
-        <v>538.0063274395839</v>
+        <v>633.9931366456838</v>
       </c>
       <c r="D36" t="n">
-        <v>538.0063274395839</v>
+        <v>485.0587269844326</v>
       </c>
       <c r="E36" t="n">
-        <v>378.7688724341284</v>
+        <v>325.8212719789771</v>
       </c>
       <c r="F36" t="n">
-        <v>232.2343144610134</v>
+        <v>179.286714005862</v>
       </c>
       <c r="G36" t="n">
-        <v>232.2343144610134</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="H36" t="n">
-        <v>121.5527527871318</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="I36" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="J36" t="n">
-        <v>65.86295996933768</v>
+        <v>65.86295996933771</v>
       </c>
       <c r="K36" t="n">
-        <v>235.2619985106316</v>
+        <v>235.2619985106317</v>
       </c>
       <c r="L36" t="n">
         <v>524.4443072560082</v>
@@ -7038,28 +7038,28 @@
         <v>1981.920806373468</v>
       </c>
       <c r="R36" t="n">
-        <v>1898.028886549805</v>
+        <v>1981.920806373468</v>
       </c>
       <c r="S36" t="n">
-        <v>1898.028886549805</v>
+        <v>1981.920806373468</v>
       </c>
       <c r="T36" t="n">
-        <v>1814.601636940314</v>
+        <v>1780.855864970716</v>
       </c>
       <c r="U36" t="n">
-        <v>1785.67595767121</v>
+        <v>1552.650554431346</v>
       </c>
       <c r="V36" t="n">
-        <v>1550.523849439467</v>
+        <v>1317.498446199603</v>
       </c>
       <c r="W36" t="n">
-        <v>1296.286492711266</v>
+        <v>1063.261089471402</v>
       </c>
       <c r="X36" t="n">
-        <v>1088.434992505733</v>
+        <v>1009.968772430706</v>
       </c>
       <c r="Y36" t="n">
-        <v>880.6746937407788</v>
+        <v>802.2084736657519</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="C37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="D37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="E37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="F37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="G37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="H37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="I37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="J37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
       <c r="K37" t="n">
-        <v>45.35301480267864</v>
+        <v>45.35301480267868</v>
       </c>
       <c r="L37" t="n">
         <v>106.6620200917992</v>
@@ -7105,40 +7105,40 @@
         <v>181.692893106836</v>
       </c>
       <c r="N37" t="n">
-        <v>260.3743160856753</v>
+        <v>260.3743160856754</v>
       </c>
       <c r="O37" t="n">
-        <v>317.0330496494804</v>
+        <v>317.0330496494805</v>
       </c>
       <c r="P37" t="n">
-        <v>341.9937020831195</v>
+        <v>341.9937020831196</v>
       </c>
       <c r="Q37" t="n">
-        <v>349.3491318592291</v>
+        <v>379.4238369113556</v>
       </c>
       <c r="R37" t="n">
-        <v>379.4238369113544</v>
+        <v>379.4238369113556</v>
       </c>
       <c r="S37" t="n">
-        <v>356.4898316143332</v>
+        <v>356.4898316143343</v>
       </c>
       <c r="T37" t="n">
-        <v>326.518213325156</v>
+        <v>326.5182133251569</v>
       </c>
       <c r="U37" t="n">
-        <v>236.5994292002697</v>
+        <v>236.5994292002704</v>
       </c>
       <c r="V37" t="n">
-        <v>181.1945722646483</v>
+        <v>181.1945722646488</v>
       </c>
       <c r="W37" t="n">
-        <v>91.05703349795311</v>
+        <v>91.05703349795348</v>
       </c>
       <c r="X37" t="n">
-        <v>62.34711387020124</v>
+        <v>62.34711387020145</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1125.713745489983</v>
+        <v>1125.713745489982</v>
       </c>
       <c r="C38" t="n">
-        <v>956.0308598198366</v>
+        <v>956.0308598198357</v>
       </c>
       <c r="D38" t="n">
-        <v>797.0447924833516</v>
+        <v>797.0447924833505</v>
       </c>
       <c r="E38" t="n">
-        <v>610.5361711553728</v>
+        <v>610.5361711553717</v>
       </c>
       <c r="F38" t="n">
-        <v>398.8298976360309</v>
+        <v>398.8298976360295</v>
       </c>
       <c r="G38" t="n">
-        <v>179.1319130772443</v>
+        <v>179.1319130772445</v>
       </c>
       <c r="H38" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="I38" t="n">
-        <v>47.42909508401512</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="J38" t="n">
-        <v>78.86359643273411</v>
+        <v>97.24711167977296</v>
       </c>
       <c r="K38" t="n">
-        <v>246.7205696482882</v>
+        <v>460.4180515033141</v>
       </c>
       <c r="L38" t="n">
-        <v>702.5525820012923</v>
+        <v>720.936097248331</v>
       </c>
       <c r="M38" t="n">
-        <v>1009.03564981905</v>
+        <v>1027.419165066088</v>
       </c>
       <c r="N38" t="n">
-        <v>1305.845936546468</v>
+        <v>1324.229451793507</v>
       </c>
       <c r="O38" t="n">
-        <v>1540.927835923696</v>
+        <v>1559.311351170735</v>
       </c>
       <c r="P38" t="n">
-        <v>1722.273930569701</v>
+        <v>1722.273930569703</v>
       </c>
       <c r="Q38" t="n">
-        <v>1962.744247801063</v>
+        <v>1962.744247801064</v>
       </c>
       <c r="R38" t="n">
-        <v>2041.708299846831</v>
+        <v>2041.708299846832</v>
       </c>
       <c r="S38" t="n">
         <v>2041.708299846831</v>
@@ -7205,13 +7205,13 @@
         <v>2017.915320763175</v>
       </c>
       <c r="U38" t="n">
-        <v>1963.352062053353</v>
+        <v>1963.352062053354</v>
       </c>
       <c r="V38" t="n">
         <v>1831.568805980048</v>
       </c>
       <c r="W38" t="n">
-        <v>1678.0797819802</v>
+        <v>1678.079781980199</v>
       </c>
       <c r="X38" t="n">
         <v>1503.893654989385</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.9936179178854</v>
+        <v>479.4339534808472</v>
       </c>
       <c r="C39" t="n">
-        <v>495.5405886367584</v>
+        <v>304.9809241997201</v>
       </c>
       <c r="D39" t="n">
-        <v>346.6061789755071</v>
+        <v>304.9809241997201</v>
       </c>
       <c r="E39" t="n">
-        <v>187.3687239700516</v>
+        <v>304.9809241997201</v>
       </c>
       <c r="F39" t="n">
-        <v>40.83416599693661</v>
+        <v>158.4463662266051</v>
       </c>
       <c r="G39" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="H39" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="I39" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="J39" t="n">
-        <v>65.86295996933768</v>
+        <v>65.86295996933771</v>
       </c>
       <c r="K39" t="n">
-        <v>235.2619985106316</v>
+        <v>235.2619985106317</v>
       </c>
       <c r="L39" t="n">
         <v>524.4443072560082</v>
@@ -7278,25 +7278,25 @@
         <v>1981.920806373468</v>
       </c>
       <c r="S39" t="n">
-        <v>1973.200839540241</v>
+        <v>1981.920806373468</v>
       </c>
       <c r="T39" t="n">
-        <v>1971.415529407755</v>
+        <v>1780.855864970716</v>
       </c>
       <c r="U39" t="n">
-        <v>1743.210218868384</v>
+        <v>1552.650554431346</v>
       </c>
       <c r="V39" t="n">
-        <v>1508.058110636642</v>
+        <v>1317.498446199603</v>
       </c>
       <c r="W39" t="n">
-        <v>1253.82075390844</v>
+        <v>1063.261089471402</v>
       </c>
       <c r="X39" t="n">
-        <v>1045.969253702907</v>
+        <v>855.409589265869</v>
       </c>
       <c r="Y39" t="n">
-        <v>838.2089549379534</v>
+        <v>647.6492905009152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="C40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="D40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="E40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="F40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="G40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="H40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="I40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="J40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="K40" t="n">
-        <v>45.35301480267865</v>
+        <v>45.35301480267867</v>
       </c>
       <c r="L40" t="n">
-        <v>106.6620200917992</v>
+        <v>144.0921549200349</v>
       </c>
       <c r="M40" t="n">
-        <v>181.692893106836</v>
+        <v>219.1230279350717</v>
       </c>
       <c r="N40" t="n">
-        <v>260.3743160856754</v>
+        <v>297.8044509139111</v>
       </c>
       <c r="O40" t="n">
-        <v>317.0330496494804</v>
+        <v>354.4631844777161</v>
       </c>
       <c r="P40" t="n">
-        <v>379.4238369113542</v>
+        <v>379.4238369113552</v>
       </c>
       <c r="Q40" t="n">
-        <v>379.4238369113542</v>
+        <v>379.4238369113552</v>
       </c>
       <c r="R40" t="n">
-        <v>379.4238369113542</v>
+        <v>379.4238369113552</v>
       </c>
       <c r="S40" t="n">
-        <v>356.4898316143331</v>
+        <v>356.4898316143339</v>
       </c>
       <c r="T40" t="n">
-        <v>326.5182133251558</v>
+        <v>326.5182133251566</v>
       </c>
       <c r="U40" t="n">
-        <v>236.5994292002696</v>
+        <v>236.5994292002702</v>
       </c>
       <c r="V40" t="n">
-        <v>181.1945722646482</v>
+        <v>181.1945722646486</v>
       </c>
       <c r="W40" t="n">
-        <v>91.05703349795306</v>
+        <v>91.05703349795337</v>
       </c>
       <c r="X40" t="n">
-        <v>62.34711387020122</v>
+        <v>62.34711387020138</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1125.713745489982</v>
+        <v>1125.713745489983</v>
       </c>
       <c r="C41" t="n">
-        <v>956.0308598198355</v>
+        <v>956.0308598198362</v>
       </c>
       <c r="D41" t="n">
-        <v>797.0447924833505</v>
+        <v>797.0447924833512</v>
       </c>
       <c r="E41" t="n">
-        <v>610.5361711553718</v>
+        <v>610.5361711553725</v>
       </c>
       <c r="F41" t="n">
-        <v>398.8298976360297</v>
+        <v>398.8298976360304</v>
       </c>
       <c r="G41" t="n">
         <v>179.1319130772443</v>
       </c>
       <c r="H41" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="I41" t="n">
-        <v>47.42909508401512</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="J41" t="n">
-        <v>78.86359643273411</v>
+        <v>267.5826339536428</v>
       </c>
       <c r="K41" t="n">
-        <v>265.1040848953253</v>
+        <v>435.4396071691969</v>
       </c>
       <c r="L41" t="n">
-        <v>525.6221306403422</v>
+        <v>695.9576529142138</v>
       </c>
       <c r="M41" t="n">
-        <v>832.1051984580997</v>
+        <v>1002.440720731971</v>
       </c>
       <c r="N41" t="n">
-        <v>1324.229451793505</v>
+        <v>1403.193503839274</v>
       </c>
       <c r="O41" t="n">
-        <v>1559.311351170734</v>
+        <v>1638.275403216503</v>
       </c>
       <c r="P41" t="n">
-        <v>1917.587897177689</v>
+        <v>1996.551949223458</v>
       </c>
       <c r="Q41" t="n">
-        <v>1962.744247801063</v>
+        <v>2041.708299846832</v>
       </c>
       <c r="R41" t="n">
-        <v>2041.708299846831</v>
+        <v>2041.708299846832</v>
       </c>
       <c r="S41" t="n">
-        <v>2041.708299846831</v>
+        <v>2041.708299846832</v>
       </c>
       <c r="T41" t="n">
-        <v>2017.915320763174</v>
+        <v>2017.915320763175</v>
       </c>
       <c r="U41" t="n">
-        <v>1963.352062053352</v>
+        <v>1963.352062053354</v>
       </c>
       <c r="V41" t="n">
-        <v>1831.568805980047</v>
+        <v>1831.568805980048</v>
       </c>
       <c r="W41" t="n">
-        <v>1678.079781980199</v>
+        <v>1678.0797819802</v>
       </c>
       <c r="X41" t="n">
-        <v>1503.893654989384</v>
+        <v>1503.893654989385</v>
       </c>
       <c r="Y41" t="n">
-        <v>1313.033954283838</v>
+        <v>1313.033954283839</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>794.1012961977146</v>
+        <v>594.7885382088186</v>
       </c>
       <c r="C42" t="n">
-        <v>619.6482669165877</v>
+        <v>420.3355089276916</v>
       </c>
       <c r="D42" t="n">
-        <v>470.7138572553364</v>
+        <v>271.4010992664404</v>
       </c>
       <c r="E42" t="n">
-        <v>311.4764022498809</v>
+        <v>112.1636442609849</v>
       </c>
       <c r="F42" t="n">
-        <v>164.9418442767659</v>
+        <v>112.1636442609849</v>
       </c>
       <c r="G42" t="n">
-        <v>164.9418442767659</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="H42" t="n">
-        <v>121.5527527871318</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="I42" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="J42" t="n">
-        <v>65.86295996933768</v>
+        <v>65.86295996933771</v>
       </c>
       <c r="K42" t="n">
-        <v>235.2619985106316</v>
+        <v>235.2619985106317</v>
       </c>
       <c r="L42" t="n">
         <v>524.4443072560082</v>
@@ -7515,25 +7515,25 @@
         <v>1898.028886549805</v>
       </c>
       <c r="S42" t="n">
-        <v>1898.028886549805</v>
+        <v>1729.780422811106</v>
       </c>
       <c r="T42" t="n">
-        <v>1896.243576417318</v>
+        <v>1528.715481408354</v>
       </c>
       <c r="U42" t="n">
-        <v>1867.317897148214</v>
+        <v>1300.510170868984</v>
       </c>
       <c r="V42" t="n">
-        <v>1632.165788916471</v>
+        <v>1264.637693907507</v>
       </c>
       <c r="W42" t="n">
-        <v>1377.928432188269</v>
+        <v>1010.400337179305</v>
       </c>
       <c r="X42" t="n">
-        <v>1170.076931982737</v>
+        <v>802.5488369737725</v>
       </c>
       <c r="Y42" t="n">
-        <v>962.3166332177827</v>
+        <v>594.7885382088186</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="C43" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="D43" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="E43" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="F43" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="G43" t="n">
-        <v>40.83416599693661</v>
+        <v>41.52227713509944</v>
       </c>
       <c r="H43" t="n">
-        <v>77.57618968700871</v>
+        <v>78.26430082517152</v>
       </c>
       <c r="I43" t="n">
-        <v>77.57618968700871</v>
+        <v>78.26430082517152</v>
       </c>
       <c r="J43" t="n">
-        <v>77.57618968700871</v>
+        <v>78.26430082517152</v>
       </c>
       <c r="K43" t="n">
-        <v>82.09503849275075</v>
+        <v>82.78314963091356</v>
       </c>
       <c r="L43" t="n">
-        <v>143.4040437818713</v>
+        <v>144.0921549200341</v>
       </c>
       <c r="M43" t="n">
-        <v>218.4349167969081</v>
+        <v>219.1230279350709</v>
       </c>
       <c r="N43" t="n">
-        <v>297.1163397757475</v>
+        <v>297.8044509139103</v>
       </c>
       <c r="O43" t="n">
-        <v>354.4631844777151</v>
+        <v>354.4631844777153</v>
       </c>
       <c r="P43" t="n">
-        <v>379.4238369113542</v>
+        <v>379.4238369113544</v>
       </c>
       <c r="Q43" t="n">
-        <v>379.4238369113542</v>
+        <v>379.4238369113544</v>
       </c>
       <c r="R43" t="n">
-        <v>379.4238369113542</v>
+        <v>379.4238369113544</v>
       </c>
       <c r="S43" t="n">
-        <v>356.4898316143331</v>
+        <v>356.4898316143332</v>
       </c>
       <c r="T43" t="n">
-        <v>326.5182133251558</v>
+        <v>326.518213325156</v>
       </c>
       <c r="U43" t="n">
-        <v>236.5994292002696</v>
+        <v>236.5994292002697</v>
       </c>
       <c r="V43" t="n">
-        <v>181.1945722646482</v>
+        <v>181.1945722646483</v>
       </c>
       <c r="W43" t="n">
-        <v>91.05703349795306</v>
+        <v>91.05703349795314</v>
       </c>
       <c r="X43" t="n">
-        <v>62.34711387020122</v>
+        <v>62.34711387020127</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
     </row>
     <row r="44">
@@ -7631,49 +7631,49 @@
         <v>797.0447924833509</v>
       </c>
       <c r="E44" t="n">
-        <v>610.5361711553721</v>
+        <v>610.5361711553724</v>
       </c>
       <c r="F44" t="n">
-        <v>398.8298976360301</v>
+        <v>398.8298976360304</v>
       </c>
       <c r="G44" t="n">
         <v>179.1319130772443</v>
       </c>
       <c r="H44" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="I44" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="J44" t="n">
-        <v>72.26866734565562</v>
+        <v>72.26866734565564</v>
       </c>
       <c r="K44" t="n">
-        <v>240.1256405612097</v>
+        <v>344.0681369410946</v>
       </c>
       <c r="L44" t="n">
-        <v>695.9576529142137</v>
+        <v>604.5861826861114</v>
       </c>
       <c r="M44" t="n">
-        <v>1197.754687339958</v>
+        <v>911.0692505038689</v>
       </c>
       <c r="N44" t="n">
-        <v>1598.507470447261</v>
+        <v>1207.879537231287</v>
       </c>
       <c r="O44" t="n">
-        <v>1833.589369824489</v>
+        <v>1442.961436608516</v>
       </c>
       <c r="P44" t="n">
-        <v>1996.551949223457</v>
+        <v>1801.23798261547</v>
       </c>
       <c r="Q44" t="n">
-        <v>2041.708299846831</v>
+        <v>2041.708299846832</v>
       </c>
       <c r="R44" t="n">
-        <v>2041.708299846831</v>
+        <v>2041.708299846832</v>
       </c>
       <c r="S44" t="n">
-        <v>2041.708299846831</v>
+        <v>2041.708299846832</v>
       </c>
       <c r="T44" t="n">
         <v>2017.915320763175</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>669.9936179178854</v>
+        <v>474.7556816402283</v>
       </c>
       <c r="C45" t="n">
-        <v>495.5405886367584</v>
+        <v>474.7556816402283</v>
       </c>
       <c r="D45" t="n">
-        <v>346.6061789755071</v>
+        <v>325.8212719789771</v>
       </c>
       <c r="E45" t="n">
-        <v>187.3687239700516</v>
+        <v>325.8212719789771</v>
       </c>
       <c r="F45" t="n">
-        <v>40.83416599693661</v>
+        <v>179.286714005862</v>
       </c>
       <c r="G45" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="H45" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="I45" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="J45" t="n">
-        <v>65.86295996933768</v>
+        <v>65.86295996933771</v>
       </c>
       <c r="K45" t="n">
-        <v>235.2619985106316</v>
+        <v>235.2619985106317</v>
       </c>
       <c r="L45" t="n">
         <v>524.4443072560082</v>
@@ -7752,25 +7752,25 @@
         <v>1898.028886549805</v>
       </c>
       <c r="S45" t="n">
-        <v>1898.028886549805</v>
+        <v>1729.780422811106</v>
       </c>
       <c r="T45" t="n">
-        <v>1772.135898137489</v>
+        <v>1727.99511267862</v>
       </c>
       <c r="U45" t="n">
-        <v>1743.210218868384</v>
+        <v>1499.78980213925</v>
       </c>
       <c r="V45" t="n">
-        <v>1508.058110636642</v>
+        <v>1312.820174358985</v>
       </c>
       <c r="W45" t="n">
-        <v>1253.82075390844</v>
+        <v>1058.582817630783</v>
       </c>
       <c r="X45" t="n">
-        <v>1045.969253702907</v>
+        <v>850.7313174252502</v>
       </c>
       <c r="Y45" t="n">
-        <v>838.2089549379534</v>
+        <v>642.9710186602963</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="C46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="D46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="E46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="F46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="G46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="H46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="I46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="J46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
       <c r="K46" t="n">
-        <v>45.35301480267865</v>
+        <v>45.35301480267867</v>
       </c>
       <c r="L46" t="n">
         <v>106.6620200917992</v>
@@ -7816,16 +7816,16 @@
         <v>181.692893106836</v>
       </c>
       <c r="N46" t="n">
-        <v>260.3743160856754</v>
+        <v>297.8044509139103</v>
       </c>
       <c r="O46" t="n">
-        <v>317.0330496494804</v>
+        <v>354.4631844777153</v>
       </c>
       <c r="P46" t="n">
-        <v>341.9937020831195</v>
+        <v>379.4238369113544</v>
       </c>
       <c r="Q46" t="n">
-        <v>349.3491318592291</v>
+        <v>379.4238369113544</v>
       </c>
       <c r="R46" t="n">
         <v>379.4238369113544</v>
@@ -7843,13 +7843,13 @@
         <v>181.1945722646483</v>
       </c>
       <c r="W46" t="n">
-        <v>91.05703349795311</v>
+        <v>91.05703349795314</v>
       </c>
       <c r="X46" t="n">
-        <v>62.34711387020125</v>
+        <v>62.34711387020127</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.83416599693661</v>
+        <v>40.83416599693663</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>137.3445936077111</v>
       </c>
       <c r="K11" t="n">
-        <v>307.0603071190804</v>
+        <v>154.5929143736354</v>
       </c>
       <c r="L11" t="n">
-        <v>306.9790661393128</v>
+        <v>306.979066139313</v>
       </c>
       <c r="M11" t="n">
-        <v>139.9346771112593</v>
+        <v>240.6292957827733</v>
       </c>
       <c r="N11" t="n">
         <v>137.5385539802486</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2863143524941</v>
+        <v>295.811109990788</v>
       </c>
       <c r="P11" t="n">
-        <v>309.6574348573646</v>
+        <v>309.6574348573648</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>245.8224898173227</v>
+        <v>109.118418981633</v>
       </c>
       <c r="L12" t="n">
-        <v>231.2043958818572</v>
+        <v>231.2043958818574</v>
       </c>
       <c r="M12" t="n">
-        <v>88.09329869223613</v>
+        <v>224.7973695279261</v>
       </c>
       <c r="N12" t="n">
         <v>59.69014925976697</v>
@@ -8784,7 +8784,7 @@
         <v>77.04906272991295</v>
       </c>
       <c r="P12" t="n">
-        <v>233.8344080922458</v>
+        <v>233.8344080922459</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>137.3445936077111</v>
       </c>
       <c r="K14" t="n">
-        <v>307.0603071190804</v>
+        <v>307.0603071190806</v>
       </c>
       <c r="L14" t="n">
-        <v>223.4542705010191</v>
+        <v>306.979066139313</v>
       </c>
       <c r="M14" t="n">
-        <v>292.4020698567044</v>
+        <v>139.9346771112593</v>
       </c>
       <c r="N14" t="n">
-        <v>290.0059467256937</v>
+        <v>290.0059467256938</v>
       </c>
       <c r="O14" t="n">
         <v>143.3437172453428</v>
       </c>
       <c r="P14" t="n">
-        <v>157.1900421119196</v>
+        <v>257.8846607834336</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>100.8094252672764</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>93.35509707187764</v>
+        <v>245.8224898173228</v>
       </c>
       <c r="L15" t="n">
-        <v>231.2043958818572</v>
+        <v>78.7370031364122</v>
       </c>
       <c r="M15" t="n">
-        <v>218.6370708311404</v>
+        <v>88.09329869223627</v>
       </c>
       <c r="N15" t="n">
-        <v>59.69014925976697</v>
+        <v>212.1575420052121</v>
       </c>
       <c r="O15" t="n">
-        <v>229.516455475358</v>
+        <v>229.5164554753581</v>
       </c>
       <c r="P15" t="n">
-        <v>233.8344080922458</v>
+        <v>81.36701534680074</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.8151256700773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>154.5929143736354</v>
+        <v>269.1479868579322</v>
       </c>
       <c r="L17" t="n">
-        <v>154.5116733938678</v>
+        <v>306.979066139313</v>
       </c>
       <c r="M17" t="n">
-        <v>208.8772742184106</v>
+        <v>292.4020698567045</v>
       </c>
       <c r="N17" t="n">
-        <v>290.0059467256937</v>
+        <v>290.0059467256938</v>
       </c>
       <c r="O17" t="n">
-        <v>295.8111099907878</v>
+        <v>143.3437172453428</v>
       </c>
       <c r="P17" t="n">
-        <v>309.6574348573646</v>
+        <v>157.1900421119196</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>166.7025152827592</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>100.8094252672764</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>245.8224898173227</v>
+        <v>93.35509707187764</v>
       </c>
       <c r="L18" t="n">
-        <v>225.0440971850716</v>
+        <v>231.2043958818574</v>
       </c>
       <c r="M18" t="n">
         <v>72.32997678248094</v>
       </c>
       <c r="N18" t="n">
-        <v>59.69014925976697</v>
+        <v>212.1575420052122</v>
       </c>
       <c r="O18" t="n">
-        <v>229.516455475358</v>
+        <v>198.0745467054401</v>
       </c>
       <c r="P18" t="n">
-        <v>233.8344080922458</v>
+        <v>233.8344080922459</v>
       </c>
       <c r="Q18" t="n">
         <v>104.8151256700773</v>
@@ -9404,19 +9404,19 @@
         <v>223.5355114807867</v>
       </c>
       <c r="L20" t="n">
-        <v>154.5116733938678</v>
+        <v>306.979066139313</v>
       </c>
       <c r="M20" t="n">
-        <v>139.9346771112593</v>
+        <v>292.4020698567045</v>
       </c>
       <c r="N20" t="n">
-        <v>290.0059467256937</v>
+        <v>137.5385539802486</v>
       </c>
       <c r="O20" t="n">
-        <v>295.8111099907878</v>
+        <v>143.3437172453428</v>
       </c>
       <c r="P20" t="n">
-        <v>309.6574348573646</v>
+        <v>309.6574348573648</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9480,25 @@
         <v>100.8094252672764</v>
       </c>
       <c r="K21" t="n">
-        <v>93.35509707187764</v>
+        <v>245.8224898173228</v>
       </c>
       <c r="L21" t="n">
-        <v>231.2043958818572</v>
+        <v>119.7819351192999</v>
       </c>
       <c r="M21" t="n">
-        <v>224.797369527926</v>
+        <v>224.7973695279261</v>
       </c>
       <c r="N21" t="n">
-        <v>205.9972433084264</v>
+        <v>59.69014925976697</v>
       </c>
       <c r="O21" t="n">
-        <v>229.516455475358</v>
+        <v>229.5164554753581</v>
       </c>
       <c r="P21" t="n">
         <v>81.36701534680074</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.8151256700773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>307.0603071190804</v>
+        <v>269.1479868579322</v>
       </c>
       <c r="L23" t="n">
-        <v>269.0667458781645</v>
+        <v>154.5116733938678</v>
       </c>
       <c r="M23" t="n">
-        <v>292.4020698567044</v>
+        <v>292.4020698567045</v>
       </c>
       <c r="N23" t="n">
-        <v>290.0059467256937</v>
+        <v>137.5385539802486</v>
       </c>
       <c r="O23" t="n">
-        <v>143.3437172453428</v>
+        <v>295.811109990788</v>
       </c>
       <c r="P23" t="n">
-        <v>157.1900421119196</v>
+        <v>309.6574348573648</v>
       </c>
       <c r="Q23" t="n">
         <v>166.7025152827592</v>
@@ -9723,16 +9723,16 @@
         <v>78.7370031364122</v>
       </c>
       <c r="M24" t="n">
-        <v>218.6370708311404</v>
+        <v>224.7973695279261</v>
       </c>
       <c r="N24" t="n">
-        <v>212.157542005212</v>
+        <v>205.9972433084265</v>
       </c>
       <c r="O24" t="n">
-        <v>229.516455475358</v>
+        <v>229.5164554753581</v>
       </c>
       <c r="P24" t="n">
-        <v>233.8344080922458</v>
+        <v>233.8344080922459</v>
       </c>
       <c r="Q24" t="n">
         <v>104.8151256700773</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>192.1085512383202</v>
+        <v>39.64115849287509</v>
       </c>
       <c r="C11" t="n">
         <v>174.6476013458472</v>
       </c>
       <c r="D11" t="n">
-        <v>164.0577511955226</v>
+        <v>11.59035845007747</v>
       </c>
       <c r="E11" t="n">
-        <v>38.83768690165638</v>
+        <v>191.3050796471015</v>
       </c>
       <c r="F11" t="n">
         <v>216.2507553165511</v>
       </c>
       <c r="G11" t="n">
-        <v>71.69515650015521</v>
+        <v>224.1625492456003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>143.5763141419071</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>30.21659382522193</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>91.49991892399905</v>
+        <v>70.17440370231526</v>
       </c>
       <c r="W11" t="n">
-        <v>158.6156782922527</v>
+        <v>6.148285546807529</v>
       </c>
       <c r="X11" t="n">
         <v>179.1058102533087</v>
       </c>
       <c r="Y11" t="n">
-        <v>195.6126482308932</v>
+        <v>195.6126482308933</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.64115849287523</v>
+        <v>192.1085512383203</v>
       </c>
       <c r="C14" t="n">
-        <v>174.6476013458472</v>
+        <v>107.018582991999</v>
       </c>
       <c r="D14" t="n">
         <v>164.0577511955227</v>
@@ -23507,7 +23507,7 @@
         <v>216.2507553165511</v>
       </c>
       <c r="G14" t="n">
-        <v>71.69515650015526</v>
+        <v>224.1625492456003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.661544532402482</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>137.1269680449746</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>158.6156782922527</v>
       </c>
       <c r="X14" t="n">
-        <v>133.4787611323335</v>
+        <v>179.1058102533087</v>
       </c>
       <c r="Y14" t="n">
-        <v>195.6126482308933</v>
+        <v>43.1452554854481</v>
       </c>
     </row>
     <row r="15">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840729.2302129874</v>
+        <v>840729.2302129875</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
         <v>593975.3455698525</v>
       </c>
       <c r="E2" t="n">
-        <v>509704.1579279696</v>
+        <v>509704.1579279694</v>
       </c>
       <c r="F2" t="n">
-        <v>509704.1579279696</v>
+        <v>509704.1579279692</v>
       </c>
       <c r="G2" t="n">
         <v>595255.2831516051</v>
       </c>
       <c r="H2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="I2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="J2" t="n">
-        <v>595255.2831516052</v>
-      </c>
       <c r="K2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="L2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="M2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="N2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="O2" t="n">
         <v>595255.2831516053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>595255.2831516059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595255.2831516054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>595255.2831516055</v>
       </c>
       <c r="P2" t="n">
         <v>595255.2831516053</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>100718.1272135095</v>
+        <v>100718.1272135096</v>
       </c>
       <c r="M3" t="n">
         <v>31912.37345594261</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25198.96729659813</v>
+        <v>25198.96729659806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>347202.8644434898</v>
       </c>
       <c r="F4" t="n">
-        <v>347202.8644434897</v>
+        <v>347202.8644434898</v>
       </c>
       <c r="G4" t="n">
         <v>414527.9152850746</v>
       </c>
       <c r="H4" t="n">
+        <v>414527.9152850746</v>
+      </c>
+      <c r="I4" t="n">
         <v>414527.9152850745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>414527.9152850746</v>
       </c>
       <c r="J4" t="n">
         <v>411476.3377615487</v>
       </c>
       <c r="K4" t="n">
-        <v>411476.3377615488</v>
+        <v>411476.3377615487</v>
       </c>
       <c r="L4" t="n">
         <v>411476.3377615487</v>
@@ -26451,13 +26451,13 @@
         <v>410753.2116605883</v>
       </c>
       <c r="N4" t="n">
+        <v>410753.2116605883</v>
+      </c>
+      <c r="O4" t="n">
         <v>410753.2116605884</v>
       </c>
-      <c r="O4" t="n">
-        <v>410753.2116605883</v>
-      </c>
       <c r="P4" t="n">
-        <v>410753.2116605883</v>
+        <v>410753.2116605884</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>28087.85730525736</v>
       </c>
       <c r="G5" t="n">
-        <v>38671.94760114802</v>
+        <v>38671.94760114803</v>
       </c>
       <c r="H5" t="n">
-        <v>38671.94760114802</v>
+        <v>38671.94760114803</v>
       </c>
       <c r="I5" t="n">
-        <v>38671.94760114802</v>
+        <v>38671.94760114803</v>
       </c>
       <c r="J5" t="n">
-        <v>56328.30119513917</v>
+        <v>56328.3011951392</v>
       </c>
       <c r="K5" t="n">
-        <v>56328.30119513917</v>
+        <v>56328.30119513918</v>
       </c>
       <c r="L5" t="n">
-        <v>56328.30119513917</v>
+        <v>56328.30119513919</v>
       </c>
       <c r="M5" t="n">
-        <v>50411.83537130067</v>
+        <v>50411.83537130068</v>
       </c>
       <c r="N5" t="n">
         <v>50411.83537130067</v>
       </c>
       <c r="O5" t="n">
-        <v>50411.83537130067</v>
+        <v>50411.83537130068</v>
       </c>
       <c r="P5" t="n">
-        <v>50411.83537130067</v>
+        <v>50411.83537130068</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102572.3847443153</v>
+        <v>102567.971166447</v>
       </c>
       <c r="C6" t="n">
-        <v>102572.384744315</v>
+        <v>102567.971166447</v>
       </c>
       <c r="D6" t="n">
-        <v>102572.384744315</v>
+        <v>102567.9711664469</v>
       </c>
       <c r="E6" t="n">
-        <v>-166510.7354769649</v>
+        <v>-166805.7393570466</v>
       </c>
       <c r="F6" t="n">
-        <v>134413.4361792226</v>
+        <v>134118.4322991406</v>
       </c>
       <c r="G6" t="n">
-        <v>41337.29305187295</v>
+        <v>41337.29305187288</v>
       </c>
       <c r="H6" t="n">
         <v>142055.4202653824</v>
       </c>
       <c r="I6" t="n">
-        <v>142055.4202653827</v>
+        <v>142055.4202653824</v>
       </c>
       <c r="J6" t="n">
-        <v>-31298.50470296181</v>
+        <v>-31298.50470296173</v>
       </c>
       <c r="K6" t="n">
-        <v>127450.6441949176</v>
+        <v>127450.6441949174</v>
       </c>
       <c r="L6" t="n">
-        <v>26732.5169814079</v>
+        <v>26732.51698140759</v>
       </c>
       <c r="M6" t="n">
-        <v>102177.8626637743</v>
+        <v>102177.8626637731</v>
       </c>
       <c r="N6" t="n">
-        <v>134090.2361197163</v>
+        <v>134090.2361197159</v>
       </c>
       <c r="O6" t="n">
-        <v>108891.2688231184</v>
+        <v>108891.2688231182</v>
       </c>
       <c r="P6" t="n">
-        <v>134090.2361197163</v>
+        <v>134090.2361197162</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="F2" t="n">
         <v>190.6252904251603</v>
@@ -26704,22 +26704,22 @@
         <v>316.5229494420472</v>
       </c>
       <c r="I2" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="J2" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="K2" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="L2" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="M2" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="N2" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="O2" t="n">
         <v>197.2868349575628</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="F4" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="G4" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="H4" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="I4" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="J4" t="n">
-        <v>662.8944677071526</v>
+        <v>662.8944677071534</v>
       </c>
       <c r="K4" t="n">
-        <v>662.8944677071526</v>
+        <v>662.8944677071531</v>
       </c>
       <c r="L4" t="n">
-        <v>662.8944677071526</v>
+        <v>662.8944677071531</v>
       </c>
       <c r="M4" t="n">
-        <v>510.4270749617075</v>
+        <v>510.427074961708</v>
       </c>
       <c r="N4" t="n">
-        <v>510.4270749617077</v>
+        <v>510.4270749617079</v>
       </c>
       <c r="O4" t="n">
-        <v>510.4270749617077</v>
+        <v>510.4270749617079</v>
       </c>
       <c r="P4" t="n">
-        <v>510.4270749617077</v>
+        <v>510.4270749617079</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.49870912074766</v>
+        <v>31.49870912074746</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>125.8976590168869</v>
+        <v>125.897659016887</v>
       </c>
       <c r="M2" t="n">
         <v>39.89046681992826</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.49870912074766</v>
+        <v>31.49870912074758</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>510.4270749617075</v>
+        <v>510.4270749617082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.49870912074766</v>
+        <v>31.49870912074746</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="C11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="D11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="E11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="F11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="G11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="H11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="I11" t="n">
         <v>190.6252904251603</v>
@@ -28138,25 +28138,25 @@
         <v>117.5251662244638</v>
       </c>
       <c r="S11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="T11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="U11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="V11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="W11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="X11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="Y11" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
     </row>
     <row r="12">
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.05300062542673</v>
       </c>
       <c r="S12" t="n">
-        <v>14.09858635586656</v>
+        <v>14.09858635586642</v>
       </c>
       <c r="T12" t="n">
-        <v>128.7967099290033</v>
+        <v>156.0358053247569</v>
       </c>
       <c r="U12" t="n">
-        <v>73.45586468853146</v>
+        <v>73.45586468853132</v>
       </c>
       <c r="V12" t="n">
-        <v>190.6252904251604</v>
+        <v>80.33319440398009</v>
       </c>
       <c r="W12" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="X12" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
     </row>
     <row r="13">
@@ -28260,13 +28260,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>190.6252904251604</v>
+        <v>167.7600139114637</v>
       </c>
       <c r="H13" t="n">
         <v>160.1736797150658</v>
       </c>
       <c r="I13" t="n">
-        <v>190.6252904251604</v>
+        <v>148.5047140303538</v>
       </c>
       <c r="J13" t="n">
         <v>77.02992301412556</v>
@@ -28284,37 +28284,37 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>85.38582308618514</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.22180677236639</v>
+        <v>66.82183659468495</v>
       </c>
       <c r="R13" t="n">
         <v>166.9083450059211</v>
       </c>
       <c r="S13" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="T13" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="U13" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="V13" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="W13" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="X13" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.6252904251604</v>
+        <v>190.6252904251603</v>
       </c>
     </row>
     <row r="14">
@@ -28424,7 +28424,7 @@
         <v>109.5747460571428</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>79.91140092229324</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,19 +28451,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>48.46351552502333</v>
       </c>
       <c r="S15" t="n">
-        <v>166.5659791013116</v>
+        <v>14.09858635586641</v>
       </c>
       <c r="T15" t="n">
         <v>190.6252904251603</v>
       </c>
       <c r="U15" t="n">
-        <v>186.7733757837041</v>
+        <v>73.45586468853132</v>
       </c>
       <c r="V15" t="n">
-        <v>80.33319440398023</v>
+        <v>80.33319440398009</v>
       </c>
       <c r="W15" t="n">
         <v>190.6252904251603</v>
@@ -28472,7 +28472,7 @@
         <v>190.6252904251603</v>
       </c>
       <c r="Y15" t="n">
-        <v>53.21530303185932</v>
+        <v>190.6252904251603</v>
       </c>
     </row>
     <row r="16">
@@ -28503,19 +28503,19 @@
         <v>160.1736797150658</v>
       </c>
       <c r="I16" t="n">
-        <v>148.5047140303538</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="J16" t="n">
         <v>77.02992301412556</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>19.54830127213952</v>
       </c>
       <c r="L16" t="n">
-        <v>8.707190961989319</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>76.67863212419573</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>66.82183659468495</v>
       </c>
       <c r="R16" t="n">
-        <v>166.9083450059211</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="S16" t="n">
         <v>190.6252904251603</v>
@@ -28649,7 +28649,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>23.35180092521287</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.05300062542673</v>
       </c>
       <c r="S18" t="n">
-        <v>14.09858635586656</v>
+        <v>166.5659791013116</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0542919887244</v>
+        <v>46.58689924327923</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9232574339765</v>
+        <v>73.45586468853132</v>
       </c>
       <c r="V18" t="n">
-        <v>80.33319440398023</v>
+        <v>80.33319440398009</v>
       </c>
       <c r="W18" t="n">
-        <v>99.22759041547457</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>154.5327062987162</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.36458743649226</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7600139114637</v>
+        <v>22.07946593158786</v>
       </c>
       <c r="H19" t="n">
         <v>160.1736797150658</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.82183659468495</v>
       </c>
       <c r="R19" t="n">
-        <v>166.9083450059211</v>
+        <v>14.44095226047594</v>
       </c>
       <c r="S19" t="n">
         <v>219.9915002016138</v>
@@ -28788,7 +28788,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.7259419669037</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28880,7 +28880,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>20.24110624287056</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28889,10 +28889,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0680225288361</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.5747460571428</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.05300062542673</v>
       </c>
       <c r="S21" t="n">
         <v>166.5659791013116</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0542919887244</v>
+        <v>194.4308546353111</v>
       </c>
       <c r="U21" t="n">
-        <v>174.6829785292152</v>
+        <v>225.9232574339765</v>
       </c>
       <c r="V21" t="n">
-        <v>80.33319440398023</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>99.22759041547457</v>
+        <v>99.22759041547442</v>
       </c>
       <c r="X21" t="n">
-        <v>53.30559245803244</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -28959,7 +28959,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>14.77942835318265</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.82183659468495</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.2277970260451</v>
+        <v>166.9083450059211</v>
       </c>
       <c r="S22" t="n">
-        <v>219.9915002016138</v>
+        <v>141.1327888164229</v>
       </c>
       <c r="T22" t="n">
         <v>226.9587370638483</v>
@@ -29022,7 +29022,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>73.24226264359211</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="C23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="D23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="E23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="F23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="H23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="I23" t="n">
         <v>190.6252904251603</v>
@@ -29095,16 +29095,16 @@
         <v>251.3044610802865</v>
       </c>
       <c r="V23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="W23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="X23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
       <c r="Y23" t="n">
-        <v>316.5229494420472</v>
+        <v>316.5229494420471</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>109.5747460571428</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>79.91140092229324</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,25 +29165,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>14.09858635586656</v>
+        <v>115.3257001965502</v>
       </c>
       <c r="T24" t="n">
-        <v>46.58689924327936</v>
+        <v>199.0542919887244</v>
       </c>
       <c r="U24" t="n">
-        <v>102.1269867060634</v>
+        <v>225.9232574339765</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>80.33319440398009</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>99.22759041547442</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>53.21530303185918</v>
       </c>
     </row>
     <row r="25">
@@ -29196,10 +29196,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>17.71435339151913</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.82183659468495</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>166.9083450059211</v>
@@ -29250,10 +29250,10 @@
         <v>226.9587370638483</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3064312412002</v>
+        <v>133.8390384957551</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>173.2789319386371</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="C26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="D26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="E26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="F26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="G26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="H26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="I26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="J26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="K26" t="n">
-        <v>119.0259520468833</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="M26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="N26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="O26" t="n">
-        <v>157.3963681376345</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>157.3963681376345</v>
+        <v>119.0259520468879</v>
       </c>
       <c r="Q26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="R26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="S26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="T26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="U26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="V26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="W26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="X26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="Y26" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
     </row>
     <row r="27">
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="F27" t="n">
-        <v>50.37861319170629</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0680225288361</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.5747460571428</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.05300062542673</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>103.1519656353395</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,25 +29430,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="C28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>147.8664145462125</v>
       </c>
       <c r="G28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="I28" t="n">
         <v>148.5047140303538</v>
@@ -29457,49 +29457,49 @@
         <v>77.02992301412556</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>157.3963681376345</v>
+        <v>50.56502629287287</v>
       </c>
       <c r="N28" t="n">
-        <v>157.3963681376345</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>63.97279830721624</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="Q28" t="n">
         <v>66.82183659468495</v>
       </c>
       <c r="R28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="S28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="T28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="U28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="V28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="W28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="X28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="Y28" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376343</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="C29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="D29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="E29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="F29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="G29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="H29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="I29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="J29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="K29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>119.0259520468832</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="N29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="O29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="P29" t="n">
-        <v>157.3963681376346</v>
+        <v>119.025952046887</v>
       </c>
       <c r="Q29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="R29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="S29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="T29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="U29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="V29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="W29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="X29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="Y29" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
     </row>
     <row r="30">
@@ -29594,22 +29594,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0680225288361</v>
+        <v>47.94545673724436</v>
       </c>
       <c r="H30" t="n">
         <v>109.5747460571428</v>
       </c>
       <c r="I30" t="n">
-        <v>79.91140092229324</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.05300062542673</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>157.3963681376346</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>157.3963681376346</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>40.42731061871032</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
     </row>
     <row r="31">
@@ -29667,25 +29667,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="C31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.0479249178557</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="G31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="I31" t="n">
         <v>148.5047140303538</v>
@@ -29694,19 +29694,19 @@
         <v>77.02992301412556</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="L31" t="n">
-        <v>157.3963681376346</v>
+        <v>50.56502629287291</v>
       </c>
       <c r="M31" t="n">
-        <v>157.3963681376346</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>63.97279830721554</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29715,28 +29715,28 @@
         <v>66.82183659468495</v>
       </c>
       <c r="R31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="S31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="T31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="U31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="V31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="W31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="X31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.3963681376346</v>
+        <v>157.3963681376343</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="C32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="D32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="E32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="F32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="G32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="H32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="I32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="J32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="K32" t="n">
-        <v>157.3963681376345</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="M32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="N32" t="n">
-        <v>157.3963681376345</v>
+        <v>119.025952046886</v>
       </c>
       <c r="O32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="Q32" t="n">
-        <v>119.0259520468828</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="R32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="S32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="T32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="U32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="V32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="W32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="X32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="Y32" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
     </row>
     <row r="33">
@@ -29828,16 +29828,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>157.3963681376345</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -29873,25 +29873,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.05300062542673</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>157.3963681376345</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>157.3963681376345</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>20.09896500991181</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>115.4791213795897</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="C34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="D34" t="n">
-        <v>157.3963681376345</v>
+        <v>150.0479249178555</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="G34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="I34" t="n">
         <v>148.5047140303538</v>
       </c>
       <c r="J34" t="n">
-        <v>157.3963681376345</v>
+        <v>77.02992301412556</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>132.2218262019194</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>157.3963681376345</v>
+        <v>50.56502629287206</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="Q34" t="n">
         <v>66.82183659468495</v>
       </c>
       <c r="R34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="S34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="T34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="U34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="V34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="W34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="X34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.3963681376345</v>
+        <v>157.3963681376344</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="C35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="D35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="E35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="F35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="G35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="H35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="I35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30013,46 +30013,46 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>18.56920732024247</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>18.56920732023963</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="P35" t="n">
-        <v>197.2868349575628</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>197.2868349575628</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="S35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="T35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="U35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="V35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="W35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="X35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="Y35" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
     </row>
     <row r="36">
@@ -30065,10 +30065,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0680225288361</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.5747460571428</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>79.91140092229324</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.05300062542673</v>
       </c>
       <c r="S36" t="n">
         <v>166.5659791013116</v>
       </c>
       <c r="T36" t="n">
-        <v>116.4613148753289</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>197.2868349575628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>153.0135913331883</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.25156364126035</v>
+        <v>104.6300535929031</v>
       </c>
       <c r="R37" t="n">
-        <v>197.2868349575628</v>
+        <v>166.9083450059211</v>
       </c>
       <c r="S37" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="T37" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="U37" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="V37" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="W37" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="X37" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575626</v>
       </c>
     </row>
     <row r="38">
@@ -30220,37 +30220,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="C38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="D38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="E38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="F38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="G38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="H38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="I38" t="n">
-        <v>197.2868349575628</v>
+        <v>190.6252904251603</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>25.23075185264376</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="L38" t="n">
-        <v>197.2868349575628</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>18.56920732023994</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="R38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="S38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="T38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="U38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="V38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="W38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="X38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="Y38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
     </row>
     <row r="39">
@@ -30305,16 +30305,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0680225288361</v>
+        <v>20.63194430146439</v>
       </c>
       <c r="H39" t="n">
         <v>109.5747460571428</v>
@@ -30350,10 +30350,10 @@
         <v>83.05300062542673</v>
       </c>
       <c r="S39" t="n">
-        <v>157.9332119364168</v>
+        <v>166.5659791013116</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2868349575628</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>37.80821699821785</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>37.80821699821691</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>66.82183659468495</v>
@@ -30429,25 +30429,25 @@
         <v>166.9083450059211</v>
       </c>
       <c r="S40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="T40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="U40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="V40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="W40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="X40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575627</v>
       </c>
     </row>
     <row r="41">
@@ -30478,13 +30478,13 @@
         <v>197.2868349575628</v>
       </c>
       <c r="I41" t="n">
+        <v>190.6252904251603</v>
+      </c>
+      <c r="J41" t="n">
         <v>197.2868349575628</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
       <c r="K41" t="n">
-        <v>18.56920732023954</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>197.2868349575628</v>
+        <v>104.9924205857425</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>197.2868349575628</v>
+        <v>117.5251662244638</v>
       </c>
       <c r="S41" t="n">
         <v>197.2868349575628</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0680225288361</v>
+        <v>66.45183904742838</v>
       </c>
       <c r="H42" t="n">
-        <v>66.6195454824051</v>
+        <v>109.5747460571428</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>79.91140092229324</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,16 +30587,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.5659791013116</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>197.2868349575628</v>
-      </c>
-      <c r="U42" t="n">
-        <v>197.2868349575628</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30630,7 +30630,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7600139114637</v>
+        <v>168.4550756671838</v>
       </c>
       <c r="H43" t="n">
         <v>197.2868349575628</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6950617557197489</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30721,25 +30721,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.9924205857423</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>197.2868349575628</v>
       </c>
-      <c r="M44" t="n">
+      <c r="Q44" t="n">
         <v>197.2868349575628</v>
-      </c>
-      <c r="N44" t="n">
-        <v>104.9924205857416</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>117.5251662244638</v>
@@ -30776,19 +30776,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0680225288361</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.5747460571428</v>
@@ -30824,16 +30824,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.5659791013116</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>74.42023346053172</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="U45" t="n">
-        <v>197.2868349575628</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>47.70065564696293</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>37.80821699821702</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.25156364126035</v>
+        <v>66.82183659468495</v>
       </c>
       <c r="R46" t="n">
-        <v>197.2868349575628</v>
+        <v>166.9083450059211</v>
       </c>
       <c r="S46" t="n">
         <v>197.2868349575628</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>31.75202156436263</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>100.694618671514</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>68.94259710715131</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="P11" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="Q11" t="n">
         <v>45.61247537714551</v>
@@ -35489,13 +35489,13 @@
         <v>25.2816100731324</v>
       </c>
       <c r="K12" t="n">
-        <v>152.467392745445</v>
+        <v>15.76332190975533</v>
       </c>
       <c r="L12" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="M12" t="n">
-        <v>15.7633219097552</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="Q12" t="n">
         <v>105.2621620657718</v>
@@ -35556,13 +35556,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.86527651369661</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>42.12057639480656</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>79.47618482711049</v>
       </c>
       <c r="O13" t="n">
-        <v>57.23104400384348</v>
+        <v>142.6168670900286</v>
       </c>
       <c r="P13" t="n">
         <v>25.21278023599907</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.39997017768145</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>31.75202156436263</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="L14" t="n">
-        <v>68.94259710715131</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="M14" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>100.694618671514</v>
       </c>
       <c r="Q14" t="n">
         <v>45.61247537714551</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>25.2816100731324</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="L15" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>146.3070940486594</v>
+        <v>15.76332190975534</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="O15" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="P15" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>105.2621620657718</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35799,19 +35799,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>42.12057639480651</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4.564493743173774</v>
+        <v>24.11279501531329</v>
       </c>
       <c r="L16" t="n">
-        <v>70.63547913281815</v>
+        <v>61.92828817082883</v>
       </c>
       <c r="M16" t="n">
-        <v>152.467392745445</v>
+        <v>75.78876062124931</v>
       </c>
       <c r="N16" t="n">
         <v>79.47618482711049</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>23.71694541923918</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>31.75202156436263</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>114.5550724842969</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="M17" t="n">
-        <v>68.94259710715133</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="N17" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="O17" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.61247537714551</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.2816100731324</v>
       </c>
       <c r="K18" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>146.3070940486594</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="O18" t="n">
-        <v>152.467392745445</v>
+        <v>121.0254839755271</v>
       </c>
       <c r="P18" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>31.75202156436263</v>
       </c>
       <c r="K20" t="n">
-        <v>68.94259710715133</v>
+        <v>68.9425971071514</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="N20" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="Q20" t="n">
         <v>45.61247537714551</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="L21" t="n">
-        <v>152.467392745445</v>
+        <v>41.04493198288774</v>
       </c>
       <c r="M21" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="N21" t="n">
-        <v>146.3070940486594</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>105.2621620657718</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>31.75202156436263</v>
       </c>
       <c r="K23" t="n">
-        <v>152.467392745445</v>
+        <v>114.5550724842969</v>
       </c>
       <c r="L23" t="n">
-        <v>114.5550724842968</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="N23" t="n">
-        <v>152.467392745445</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>146.3070940486594</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="N24" t="n">
-        <v>152.467392745445</v>
+        <v>146.3070940486595</v>
       </c>
       <c r="O24" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="P24" t="n">
-        <v>152.467392745445</v>
+        <v>152.4673927454452</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>189.1483897019971</v>
+        <v>189.1483897019969</v>
       </c>
       <c r="K26" t="n">
-        <v>288.5784502444127</v>
+        <v>326.9488663351638</v>
       </c>
       <c r="L26" t="n">
-        <v>263.1495411565827</v>
+        <v>420.545909294217</v>
       </c>
       <c r="M26" t="n">
-        <v>466.9752245192076</v>
+        <v>466.9752245192075</v>
       </c>
       <c r="N26" t="n">
-        <v>457.2047385693701</v>
+        <v>457.2047385693699</v>
       </c>
       <c r="O26" t="n">
-        <v>394.8528321550371</v>
+        <v>237.4564640174026</v>
       </c>
       <c r="P26" t="n">
-        <v>322.0050341971976</v>
+        <v>283.6346181064509</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.00884351478</v>
+        <v>203.0088435147798</v>
       </c>
       <c r="R26" t="n">
-        <v>39.87120191317076</v>
+        <v>39.87120191317056</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>10.96240549106514</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.445366523281237</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.564493743173774</v>
+        <v>161.9608618808081</v>
       </c>
       <c r="L28" t="n">
         <v>61.92828817082883</v>
       </c>
       <c r="M28" t="n">
-        <v>233.1851287588838</v>
+        <v>126.3537869141222</v>
       </c>
       <c r="N28" t="n">
-        <v>236.872552964745</v>
+        <v>79.47618482711049</v>
       </c>
       <c r="O28" t="n">
-        <v>121.2038423110597</v>
+        <v>57.23104400384348</v>
       </c>
       <c r="P28" t="n">
-        <v>25.21278023599907</v>
+        <v>182.6091483736334</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>189.1483897019972</v>
+        <v>189.1483897019969</v>
       </c>
       <c r="K29" t="n">
-        <v>326.948866335164</v>
+        <v>326.9488663351638</v>
       </c>
       <c r="L29" t="n">
         <v>263.1495411565827</v>
       </c>
       <c r="M29" t="n">
-        <v>428.6048084284564</v>
+        <v>466.9752245192075</v>
       </c>
       <c r="N29" t="n">
-        <v>457.2047385693701</v>
+        <v>457.2047385693699</v>
       </c>
       <c r="O29" t="n">
-        <v>394.8528321550371</v>
+        <v>394.8528321550369</v>
       </c>
       <c r="P29" t="n">
-        <v>322.0050341971976</v>
+        <v>283.63461810645</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0088435147801</v>
+        <v>203.0088435147798</v>
       </c>
       <c r="R29" t="n">
-        <v>39.87120191317081</v>
+        <v>39.87120191317056</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.43245189964332</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>11.97532011470307</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>4.564493743173774</v>
+        <v>161.9608618808081</v>
       </c>
       <c r="L31" t="n">
-        <v>219.3246563084634</v>
+        <v>112.4933144637017</v>
       </c>
       <c r="M31" t="n">
-        <v>233.1851287588839</v>
+        <v>75.78876062124931</v>
       </c>
       <c r="N31" t="n">
         <v>79.47618482711049</v>
       </c>
       <c r="O31" t="n">
-        <v>121.203842311059</v>
+        <v>214.6274121414778</v>
       </c>
       <c r="P31" t="n">
         <v>25.21278023599907</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>189.1483897019972</v>
+        <v>189.148389701997</v>
       </c>
       <c r="K32" t="n">
-        <v>326.948866335164</v>
+        <v>169.5524981975294</v>
       </c>
       <c r="L32" t="n">
-        <v>420.5459092942173</v>
+        <v>420.545909294217</v>
       </c>
       <c r="M32" t="n">
-        <v>466.9752245192077</v>
+        <v>466.9752245192075</v>
       </c>
       <c r="N32" t="n">
-        <v>457.2047385693701</v>
+        <v>418.8343224786215</v>
       </c>
       <c r="O32" t="n">
-        <v>394.8528321550371</v>
+        <v>394.8528321550369</v>
       </c>
       <c r="P32" t="n">
-        <v>164.6086660595631</v>
+        <v>322.0050341971975</v>
       </c>
       <c r="Q32" t="n">
-        <v>164.6384274240284</v>
+        <v>203.0088435147799</v>
       </c>
       <c r="R32" t="n">
-        <v>39.87120191317079</v>
+        <v>39.87120191317062</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.780895119422183</v>
+        <v>1.432451899643133</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>11.97532011470312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36644512350898</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>4.564493743173774</v>
       </c>
       <c r="L34" t="n">
-        <v>194.1501143727483</v>
+        <v>61.92828817082883</v>
       </c>
       <c r="M34" t="n">
-        <v>233.1851287588838</v>
+        <v>126.3537869141214</v>
       </c>
       <c r="N34" t="n">
-        <v>79.47618482711049</v>
+        <v>236.8725529647448</v>
       </c>
       <c r="O34" t="n">
         <v>57.23104400384348</v>
       </c>
       <c r="P34" t="n">
-        <v>25.21278023599907</v>
+        <v>182.6091483736334</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.661544532402502</v>
+        <v>6.661544532402331</v>
       </c>
       <c r="J35" t="n">
         <v>31.75202156436263</v>
@@ -37309,28 +37309,28 @@
         <v>169.5524981975294</v>
       </c>
       <c r="L35" t="n">
-        <v>263.1495411565827</v>
+        <v>460.4363761141453</v>
       </c>
       <c r="M35" t="n">
-        <v>309.5788563815732</v>
+        <v>328.1480637018157</v>
       </c>
       <c r="N35" t="n">
         <v>299.8083704317355</v>
       </c>
       <c r="O35" t="n">
-        <v>256.0256713376422</v>
+        <v>434.7432989749652</v>
       </c>
       <c r="P35" t="n">
-        <v>361.8955010171259</v>
+        <v>164.6086660595631</v>
       </c>
       <c r="Q35" t="n">
-        <v>242.8993103347083</v>
+        <v>45.61247537714551</v>
       </c>
       <c r="R35" t="n">
-        <v>79.76166873309904</v>
+        <v>79.76166873309887</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.509903313490213e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37482,10 +37482,10 @@
         <v>25.21278023599907</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.429727046575399</v>
+        <v>37.80821699821814</v>
       </c>
       <c r="R37" t="n">
-        <v>30.37848995164168</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,16 +37537,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.66154453240253</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>31.75202156436263</v>
+        <v>56.98277341700638</v>
       </c>
       <c r="K38" t="n">
-        <v>169.5524981975294</v>
+        <v>366.839333155092</v>
       </c>
       <c r="L38" t="n">
-        <v>460.4363761141456</v>
+        <v>263.1495411565827</v>
       </c>
       <c r="M38" t="n">
         <v>309.5788563815732</v>
@@ -37558,13 +37558,13 @@
         <v>237.4564640174026</v>
       </c>
       <c r="P38" t="n">
-        <v>183.177873379803</v>
+        <v>164.6086660595631</v>
       </c>
       <c r="Q38" t="n">
-        <v>242.8993103347083</v>
+        <v>242.8993103347082</v>
       </c>
       <c r="R38" t="n">
-        <v>79.76166873309907</v>
+        <v>79.76166873309893</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>4.564493743173774</v>
       </c>
       <c r="L40" t="n">
-        <v>61.92828817082883</v>
+        <v>99.73650516904668</v>
       </c>
       <c r="M40" t="n">
         <v>75.78876062124931</v>
@@ -37716,7 +37716,7 @@
         <v>57.23104400384348</v>
       </c>
       <c r="P40" t="n">
-        <v>63.02099723421597</v>
+        <v>25.21278023599907</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.66154453240253</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>31.75202156436263</v>
+        <v>229.0388565219254</v>
       </c>
       <c r="K41" t="n">
-        <v>188.1217055177689</v>
+        <v>169.5524981975294</v>
       </c>
       <c r="L41" t="n">
         <v>263.1495411565827</v>
@@ -37789,7 +37789,7 @@
         <v>309.5788563815732</v>
       </c>
       <c r="N41" t="n">
-        <v>497.0952053892984</v>
+        <v>404.800791017478</v>
       </c>
       <c r="O41" t="n">
         <v>237.4564640174026</v>
@@ -37801,7 +37801,7 @@
         <v>45.61247537714551</v>
       </c>
       <c r="R41" t="n">
-        <v>79.76166873309907</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37926,10 +37926,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.6950617557200103</v>
       </c>
       <c r="H43" t="n">
-        <v>37.11315524249707</v>
+        <v>37.11315524249704</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>79.47618482711049</v>
       </c>
       <c r="O43" t="n">
-        <v>57.92610575956323</v>
+        <v>57.23104400384348</v>
       </c>
       <c r="P43" t="n">
         <v>25.21278023599907</v>
@@ -38017,25 +38017,25 @@
         <v>31.75202156436263</v>
       </c>
       <c r="K44" t="n">
-        <v>169.5524981975294</v>
+        <v>274.5449187832717</v>
       </c>
       <c r="L44" t="n">
-        <v>460.4363761141454</v>
+        <v>263.1495411565827</v>
       </c>
       <c r="M44" t="n">
-        <v>506.8656913391359</v>
+        <v>309.5788563815732</v>
       </c>
       <c r="N44" t="n">
-        <v>404.8007910174771</v>
+        <v>299.8083704317355</v>
       </c>
       <c r="O44" t="n">
         <v>237.4564640174026</v>
       </c>
       <c r="P44" t="n">
-        <v>164.6086660595631</v>
+        <v>361.8955010171259</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.61247537714551</v>
+        <v>242.8993103347083</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>75.78876062124931</v>
       </c>
       <c r="N46" t="n">
-        <v>79.47618482711049</v>
+        <v>117.2844018253275</v>
       </c>
       <c r="O46" t="n">
         <v>57.23104400384348</v>
@@ -38193,10 +38193,10 @@
         <v>25.21278023599907</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.429727046575399</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>30.37848995164168</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
